--- a/상품목록_이미지입력용.xlsx
+++ b/상품목록_이미지입력용.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\다운로드\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopping-mission-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3E1E86C-4644-4638-9D02-DBAA1DE18372}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209AB96-EE1B-43F0-A718-7BD5AD48224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>상품명</t>
   </si>
@@ -402,6 +402,9 @@
   <si>
     <t>보조배터리</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzvWod7jrXwbGVDGqIbKzGzabEK4ZswLiMkA&amp;s</t>
   </si>
 </sst>
 </file>
@@ -789,8 +792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E52" sqref="E52"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -814,7 +817,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>50</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>800</v>
@@ -1395,57 +1398,56 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{6EE38F0E-32B5-410E-8830-C0BD2F51ED75}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{7559D177-70E6-42FC-99F5-BFE41EE69C66}"/>
-    <hyperlink ref="B6" r:id="rId3" xr:uid="{04AD04CA-E176-4CA1-9582-37F4EC08AF6F}"/>
-    <hyperlink ref="B4" r:id="rId4" xr:uid="{B438767E-11F2-43E3-B2CF-72FA6E609C3E}"/>
-    <hyperlink ref="B5" r:id="rId5" xr:uid="{23F57276-54E4-4F04-B80A-42B29C85FA3D}"/>
-    <hyperlink ref="B7" r:id="rId6" xr:uid="{2A9974D4-396C-41F9-A88F-F4D4C4A3B7FE}"/>
-    <hyperlink ref="B8" r:id="rId7" xr:uid="{0718806E-D1E9-4C83-8216-AEFE1EA965FE}"/>
-    <hyperlink ref="B9" r:id="rId8" xr:uid="{55B5ED45-F9CC-4E83-B36C-D178420334AB}"/>
-    <hyperlink ref="B10" r:id="rId9" xr:uid="{DB059A95-0108-42F8-84AA-657042A65189}"/>
-    <hyperlink ref="B11" r:id="rId10" xr:uid="{C72D1D00-8DB9-4A01-9269-ABF222DBD0B1}"/>
-    <hyperlink ref="B12" r:id="rId11" xr:uid="{688172DA-61B6-414C-AC34-65271AC38434}"/>
-    <hyperlink ref="B13" r:id="rId12" xr:uid="{FA99C109-95DF-4A27-A531-71BD99F1E8D4}"/>
-    <hyperlink ref="B14" r:id="rId13" xr:uid="{51D2D2E1-0E34-41C6-ACE7-ED385C9F1904}"/>
-    <hyperlink ref="B15" r:id="rId14" xr:uid="{F004BD5C-0300-43DF-BC51-8B6976BBCE86}"/>
-    <hyperlink ref="B16" r:id="rId15" xr:uid="{A42611C3-7F58-4C4D-8330-2C956B5DD576}"/>
-    <hyperlink ref="B17" r:id="rId16" xr:uid="{4BE1BFDE-6333-4DF5-9E9C-521923A0F96F}"/>
-    <hyperlink ref="B18" r:id="rId17" xr:uid="{ADA07CC5-4808-494C-A257-B42EA0B46F9C}"/>
-    <hyperlink ref="B19" r:id="rId18" xr:uid="{2704E8CA-DF2F-44A4-9112-FBD57CA14479}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{4EEAD921-FDB0-41F2-BECB-4F0B218B0C55}"/>
-    <hyperlink ref="B21" r:id="rId20" xr:uid="{01728AF0-B203-493B-A53A-963EEA4906DC}"/>
-    <hyperlink ref="B22" r:id="rId21" xr:uid="{2C8C379B-24E0-448E-BEEF-AD848D228048}"/>
-    <hyperlink ref="B23" r:id="rId22" xr:uid="{E2DB2B7D-ABF4-4493-8FB3-994175926695}"/>
-    <hyperlink ref="B24" r:id="rId23" xr:uid="{5EBFD21F-43F0-4742-8D61-D174DA70AF59}"/>
-    <hyperlink ref="B25" r:id="rId24" xr:uid="{BAC6A382-B802-43D6-A341-5A67B7C2CA88}"/>
-    <hyperlink ref="B26" r:id="rId25" xr:uid="{B4F28EDF-D555-4498-ACCE-DDF86B1B9F0A}"/>
-    <hyperlink ref="B27" r:id="rId26" xr:uid="{60F44EFA-38DC-4F28-AA60-CA2B1B50A1D1}"/>
-    <hyperlink ref="B28" r:id="rId27" xr:uid="{D364F64B-F536-4182-A17F-AE260EC06889}"/>
-    <hyperlink ref="B29" r:id="rId28" xr:uid="{B1D97AE3-1172-45C8-A903-D3E1135A21D6}"/>
-    <hyperlink ref="B30" r:id="rId29" xr:uid="{3B0785A4-A17B-4035-81B2-894FE32739F6}"/>
-    <hyperlink ref="B31" r:id="rId30" xr:uid="{468909BE-0CCA-4FB8-8C70-646695CEBC3D}"/>
-    <hyperlink ref="B32" r:id="rId31" xr:uid="{31E60622-2137-47BC-A7F0-BE074B1EEC89}"/>
-    <hyperlink ref="B33" r:id="rId32" xr:uid="{877953A1-170B-4330-99EC-527C7902B2E8}"/>
-    <hyperlink ref="B34" r:id="rId33" xr:uid="{2342CFBC-0101-403F-9957-7D989013A0F7}"/>
-    <hyperlink ref="B35" r:id="rId34" xr:uid="{0DD9DD92-3DBC-42C6-9A8D-0691EE2122D8}"/>
-    <hyperlink ref="B36" r:id="rId35" xr:uid="{8DD478D9-C6F3-44F3-979A-0F4619894B55}"/>
-    <hyperlink ref="B37" r:id="rId36" xr:uid="{DF6EA006-3C1C-44BE-BD7B-2726B8A9269D}"/>
-    <hyperlink ref="B38" r:id="rId37" xr:uid="{19424D8E-83B3-4395-9C75-CFD5D01B3620}"/>
-    <hyperlink ref="B39" r:id="rId38" xr:uid="{F0678B4A-8AF6-4802-B7BF-583384BFABA1}"/>
-    <hyperlink ref="B40" r:id="rId39" xr:uid="{B4BA252E-42C2-4391-82AC-8208060A6787}"/>
-    <hyperlink ref="B41" r:id="rId40" xr:uid="{D56EC38D-C44B-43DD-B6A3-0CF9174D50D3}"/>
-    <hyperlink ref="B42" r:id="rId41" xr:uid="{B8A5A82F-B0E5-4EDF-802A-A1571555EED8}"/>
-    <hyperlink ref="B43" r:id="rId42" xr:uid="{F336BBFB-46DB-4716-B499-508F7BD60958}"/>
-    <hyperlink ref="B44" r:id="rId43" xr:uid="{2930BC25-2E53-4533-A1E7-9E25A6193043}"/>
-    <hyperlink ref="B45" r:id="rId44" xr:uid="{89D4C5E1-3516-4AD6-B280-22614C86D5B2}"/>
-    <hyperlink ref="B48" r:id="rId45" xr:uid="{5C111A47-F67D-47D4-88FF-D317A950AC76}"/>
-    <hyperlink ref="B49" r:id="rId46" xr:uid="{E1337E79-733A-4818-B947-615A43BBF2A6}"/>
-    <hyperlink ref="B50" r:id="rId47" xr:uid="{41097C98-2CFC-4304-9CE6-C9C72AE1217D}"/>
-    <hyperlink ref="B51" r:id="rId48" xr:uid="{3155FC45-B205-4709-B77E-FD0730EDF37A}"/>
-    <hyperlink ref="B52" r:id="rId49" xr:uid="{0F6F0EED-B077-4BAD-93F2-DFD31D100F7A}"/>
-    <hyperlink ref="B53" r:id="rId50" xr:uid="{7AFF97D0-DDC5-419A-A1A4-82C31A71E6A1}"/>
-    <hyperlink ref="B54" r:id="rId51" xr:uid="{B17FF8F4-BEB4-4670-BE0A-AD1F417CAAB0}"/>
+    <hyperlink ref="B3" r:id="rId1" xr:uid="{7559D177-70E6-42FC-99F5-BFE41EE69C66}"/>
+    <hyperlink ref="B6" r:id="rId2" xr:uid="{04AD04CA-E176-4CA1-9582-37F4EC08AF6F}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{B438767E-11F2-43E3-B2CF-72FA6E609C3E}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{23F57276-54E4-4F04-B80A-42B29C85FA3D}"/>
+    <hyperlink ref="B7" r:id="rId5" xr:uid="{2A9974D4-396C-41F9-A88F-F4D4C4A3B7FE}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{0718806E-D1E9-4C83-8216-AEFE1EA965FE}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{55B5ED45-F9CC-4E83-B36C-D178420334AB}"/>
+    <hyperlink ref="B10" r:id="rId8" xr:uid="{DB059A95-0108-42F8-84AA-657042A65189}"/>
+    <hyperlink ref="B11" r:id="rId9" xr:uid="{C72D1D00-8DB9-4A01-9269-ABF222DBD0B1}"/>
+    <hyperlink ref="B12" r:id="rId10" xr:uid="{688172DA-61B6-414C-AC34-65271AC38434}"/>
+    <hyperlink ref="B13" r:id="rId11" xr:uid="{FA99C109-95DF-4A27-A531-71BD99F1E8D4}"/>
+    <hyperlink ref="B14" r:id="rId12" xr:uid="{51D2D2E1-0E34-41C6-ACE7-ED385C9F1904}"/>
+    <hyperlink ref="B15" r:id="rId13" xr:uid="{F004BD5C-0300-43DF-BC51-8B6976BBCE86}"/>
+    <hyperlink ref="B16" r:id="rId14" xr:uid="{A42611C3-7F58-4C4D-8330-2C956B5DD576}"/>
+    <hyperlink ref="B17" r:id="rId15" xr:uid="{4BE1BFDE-6333-4DF5-9E9C-521923A0F96F}"/>
+    <hyperlink ref="B18" r:id="rId16" xr:uid="{ADA07CC5-4808-494C-A257-B42EA0B46F9C}"/>
+    <hyperlink ref="B19" r:id="rId17" xr:uid="{2704E8CA-DF2F-44A4-9112-FBD57CA14479}"/>
+    <hyperlink ref="B20" r:id="rId18" xr:uid="{4EEAD921-FDB0-41F2-BECB-4F0B218B0C55}"/>
+    <hyperlink ref="B21" r:id="rId19" xr:uid="{01728AF0-B203-493B-A53A-963EEA4906DC}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{2C8C379B-24E0-448E-BEEF-AD848D228048}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{E2DB2B7D-ABF4-4493-8FB3-994175926695}"/>
+    <hyperlink ref="B24" r:id="rId22" xr:uid="{5EBFD21F-43F0-4742-8D61-D174DA70AF59}"/>
+    <hyperlink ref="B25" r:id="rId23" xr:uid="{BAC6A382-B802-43D6-A341-5A67B7C2CA88}"/>
+    <hyperlink ref="B26" r:id="rId24" xr:uid="{B4F28EDF-D555-4498-ACCE-DDF86B1B9F0A}"/>
+    <hyperlink ref="B27" r:id="rId25" xr:uid="{60F44EFA-38DC-4F28-AA60-CA2B1B50A1D1}"/>
+    <hyperlink ref="B28" r:id="rId26" xr:uid="{D364F64B-F536-4182-A17F-AE260EC06889}"/>
+    <hyperlink ref="B29" r:id="rId27" xr:uid="{B1D97AE3-1172-45C8-A903-D3E1135A21D6}"/>
+    <hyperlink ref="B30" r:id="rId28" xr:uid="{3B0785A4-A17B-4035-81B2-894FE32739F6}"/>
+    <hyperlink ref="B31" r:id="rId29" xr:uid="{468909BE-0CCA-4FB8-8C70-646695CEBC3D}"/>
+    <hyperlink ref="B32" r:id="rId30" xr:uid="{31E60622-2137-47BC-A7F0-BE074B1EEC89}"/>
+    <hyperlink ref="B33" r:id="rId31" xr:uid="{877953A1-170B-4330-99EC-527C7902B2E8}"/>
+    <hyperlink ref="B34" r:id="rId32" xr:uid="{2342CFBC-0101-403F-9957-7D989013A0F7}"/>
+    <hyperlink ref="B35" r:id="rId33" xr:uid="{0DD9DD92-3DBC-42C6-9A8D-0691EE2122D8}"/>
+    <hyperlink ref="B36" r:id="rId34" xr:uid="{8DD478D9-C6F3-44F3-979A-0F4619894B55}"/>
+    <hyperlink ref="B37" r:id="rId35" xr:uid="{DF6EA006-3C1C-44BE-BD7B-2726B8A9269D}"/>
+    <hyperlink ref="B38" r:id="rId36" xr:uid="{19424D8E-83B3-4395-9C75-CFD5D01B3620}"/>
+    <hyperlink ref="B39" r:id="rId37" xr:uid="{F0678B4A-8AF6-4802-B7BF-583384BFABA1}"/>
+    <hyperlink ref="B40" r:id="rId38" xr:uid="{B4BA252E-42C2-4391-82AC-8208060A6787}"/>
+    <hyperlink ref="B41" r:id="rId39" xr:uid="{D56EC38D-C44B-43DD-B6A3-0CF9174D50D3}"/>
+    <hyperlink ref="B42" r:id="rId40" xr:uid="{B8A5A82F-B0E5-4EDF-802A-A1571555EED8}"/>
+    <hyperlink ref="B43" r:id="rId41" xr:uid="{F336BBFB-46DB-4716-B499-508F7BD60958}"/>
+    <hyperlink ref="B44" r:id="rId42" xr:uid="{2930BC25-2E53-4533-A1E7-9E25A6193043}"/>
+    <hyperlink ref="B45" r:id="rId43" xr:uid="{89D4C5E1-3516-4AD6-B280-22614C86D5B2}"/>
+    <hyperlink ref="B48" r:id="rId44" xr:uid="{5C111A47-F67D-47D4-88FF-D317A950AC76}"/>
+    <hyperlink ref="B49" r:id="rId45" xr:uid="{E1337E79-733A-4818-B947-615A43BBF2A6}"/>
+    <hyperlink ref="B50" r:id="rId46" xr:uid="{41097C98-2CFC-4304-9CE6-C9C72AE1217D}"/>
+    <hyperlink ref="B51" r:id="rId47" xr:uid="{3155FC45-B205-4709-B77E-FD0730EDF37A}"/>
+    <hyperlink ref="B52" r:id="rId48" xr:uid="{0F6F0EED-B077-4BAD-93F2-DFD31D100F7A}"/>
+    <hyperlink ref="B53" r:id="rId49" xr:uid="{7AFF97D0-DDC5-419A-A1A4-82C31A71E6A1}"/>
+    <hyperlink ref="B54" r:id="rId50" xr:uid="{B17FF8F4-BEB4-4670-BE0A-AD1F417CAAB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/상품목록_이미지입력용.xlsx
+++ b/상품목록_이미지입력용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopping-mission-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0209AB96-EE1B-43F0-A718-7BD5AD48224E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DC4423-63DB-48D5-8CA8-04B0723D26A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
   <si>
     <t>상품명</t>
   </si>
@@ -170,10 +170,6 @@
   </si>
   <si>
     <t>DIY 향수 만들기 키트</t>
-  </si>
-  <si>
-    <t>https://png.pngtree.com/png-clipart/20210311/original/pngtree-onion-png-image_6001491.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>https://png.pngtree.com/png-clipart/20190905/original/pngtree-piece-of-five-flowered-pork-illustration-png-image_4543895.jpg</t>
@@ -793,12 +789,13 @@
   <dimension ref="A1:C54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I9" sqref="I9"/>
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="2" width="59.25" customWidth="1"/>
+    <col min="1" max="1" width="59.25" customWidth="1"/>
+    <col min="2" max="2" width="90.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -809,7 +806,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -817,7 +814,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2">
         <v>800</v>
@@ -828,7 +825,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>50</v>
+        <v>107</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -839,7 +836,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -850,7 +847,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -861,7 +858,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6">
         <v>4000</v>
@@ -872,7 +869,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C7">
         <v>6000</v>
@@ -883,7 +880,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C8">
         <v>2500</v>
@@ -891,10 +888,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C9">
         <v>1300</v>
@@ -905,7 +902,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C10">
         <v>2500</v>
@@ -916,7 +913,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C11">
         <v>1200</v>
@@ -927,7 +924,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C12">
         <v>5000</v>
@@ -935,10 +932,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -949,7 +946,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -960,7 +957,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C15">
         <v>1500</v>
@@ -971,7 +968,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -982,7 +979,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -990,10 +987,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C18">
         <v>15000</v>
@@ -1004,7 +1001,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -1015,7 +1012,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>5000</v>
@@ -1026,7 +1023,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C21">
         <v>3000</v>
@@ -1037,7 +1034,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C22">
         <v>5000</v>
@@ -1048,7 +1045,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C23">
         <v>3500</v>
@@ -1059,7 +1056,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1070,7 +1067,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -1081,7 +1078,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C26">
         <v>5000</v>
@@ -1092,7 +1089,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C27">
         <v>5000</v>
@@ -1103,7 +1100,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C28">
         <v>5000</v>
@@ -1114,7 +1111,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C29">
         <v>2000</v>
@@ -1125,7 +1122,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C30">
         <v>2500</v>
@@ -1136,7 +1133,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C31">
         <v>1000</v>
@@ -1144,10 +1141,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -1155,10 +1152,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
+        <v>81</v>
+      </c>
+      <c r="B33" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="B33" s="2" t="s">
-        <v>83</v>
       </c>
       <c r="C33">
         <v>500</v>
@@ -1169,7 +1166,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C34">
         <v>50000</v>
@@ -1180,7 +1177,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -1191,7 +1188,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C36">
         <v>2000</v>
@@ -1202,7 +1199,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -1213,7 +1210,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C38">
         <v>700000</v>
@@ -1224,7 +1221,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C39">
         <v>3000</v>
@@ -1235,7 +1232,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C40">
         <v>5000</v>
@@ -1246,7 +1243,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C41">
         <v>50000</v>
@@ -1257,7 +1254,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C42">
         <v>8000</v>
@@ -1268,7 +1265,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C43">
         <v>15000</v>
@@ -1279,7 +1276,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C44">
         <v>2500</v>
@@ -1290,7 +1287,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C45">
         <v>3500</v>
@@ -1301,7 +1298,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C46">
         <v>15000</v>
@@ -1312,7 +1309,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C47">
         <v>10000</v>
@@ -1323,7 +1320,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C48">
         <v>3000</v>
@@ -1334,7 +1331,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C49">
         <v>7000</v>
@@ -1345,7 +1342,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C50">
         <v>15000</v>
@@ -1356,7 +1353,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C51">
         <v>12000</v>
@@ -1367,7 +1364,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C52">
         <v>4000</v>
@@ -1378,7 +1375,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C53">
         <v>5000</v>
@@ -1389,7 +1386,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C54">
         <v>18000</v>
@@ -1398,56 +1395,55 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" xr:uid="{7559D177-70E6-42FC-99F5-BFE41EE69C66}"/>
-    <hyperlink ref="B6" r:id="rId2" xr:uid="{04AD04CA-E176-4CA1-9582-37F4EC08AF6F}"/>
-    <hyperlink ref="B4" r:id="rId3" xr:uid="{B438767E-11F2-43E3-B2CF-72FA6E609C3E}"/>
-    <hyperlink ref="B5" r:id="rId4" xr:uid="{23F57276-54E4-4F04-B80A-42B29C85FA3D}"/>
-    <hyperlink ref="B7" r:id="rId5" xr:uid="{2A9974D4-396C-41F9-A88F-F4D4C4A3B7FE}"/>
-    <hyperlink ref="B8" r:id="rId6" xr:uid="{0718806E-D1E9-4C83-8216-AEFE1EA965FE}"/>
-    <hyperlink ref="B9" r:id="rId7" xr:uid="{55B5ED45-F9CC-4E83-B36C-D178420334AB}"/>
-    <hyperlink ref="B10" r:id="rId8" xr:uid="{DB059A95-0108-42F8-84AA-657042A65189}"/>
-    <hyperlink ref="B11" r:id="rId9" xr:uid="{C72D1D00-8DB9-4A01-9269-ABF222DBD0B1}"/>
-    <hyperlink ref="B12" r:id="rId10" xr:uid="{688172DA-61B6-414C-AC34-65271AC38434}"/>
-    <hyperlink ref="B13" r:id="rId11" xr:uid="{FA99C109-95DF-4A27-A531-71BD99F1E8D4}"/>
-    <hyperlink ref="B14" r:id="rId12" xr:uid="{51D2D2E1-0E34-41C6-ACE7-ED385C9F1904}"/>
-    <hyperlink ref="B15" r:id="rId13" xr:uid="{F004BD5C-0300-43DF-BC51-8B6976BBCE86}"/>
-    <hyperlink ref="B16" r:id="rId14" xr:uid="{A42611C3-7F58-4C4D-8330-2C956B5DD576}"/>
-    <hyperlink ref="B17" r:id="rId15" xr:uid="{4BE1BFDE-6333-4DF5-9E9C-521923A0F96F}"/>
-    <hyperlink ref="B18" r:id="rId16" xr:uid="{ADA07CC5-4808-494C-A257-B42EA0B46F9C}"/>
-    <hyperlink ref="B19" r:id="rId17" xr:uid="{2704E8CA-DF2F-44A4-9112-FBD57CA14479}"/>
-    <hyperlink ref="B20" r:id="rId18" xr:uid="{4EEAD921-FDB0-41F2-BECB-4F0B218B0C55}"/>
-    <hyperlink ref="B21" r:id="rId19" xr:uid="{01728AF0-B203-493B-A53A-963EEA4906DC}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{2C8C379B-24E0-448E-BEEF-AD848D228048}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{E2DB2B7D-ABF4-4493-8FB3-994175926695}"/>
-    <hyperlink ref="B24" r:id="rId22" xr:uid="{5EBFD21F-43F0-4742-8D61-D174DA70AF59}"/>
-    <hyperlink ref="B25" r:id="rId23" xr:uid="{BAC6A382-B802-43D6-A341-5A67B7C2CA88}"/>
-    <hyperlink ref="B26" r:id="rId24" xr:uid="{B4F28EDF-D555-4498-ACCE-DDF86B1B9F0A}"/>
-    <hyperlink ref="B27" r:id="rId25" xr:uid="{60F44EFA-38DC-4F28-AA60-CA2B1B50A1D1}"/>
-    <hyperlink ref="B28" r:id="rId26" xr:uid="{D364F64B-F536-4182-A17F-AE260EC06889}"/>
-    <hyperlink ref="B29" r:id="rId27" xr:uid="{B1D97AE3-1172-45C8-A903-D3E1135A21D6}"/>
-    <hyperlink ref="B30" r:id="rId28" xr:uid="{3B0785A4-A17B-4035-81B2-894FE32739F6}"/>
-    <hyperlink ref="B31" r:id="rId29" xr:uid="{468909BE-0CCA-4FB8-8C70-646695CEBC3D}"/>
-    <hyperlink ref="B32" r:id="rId30" xr:uid="{31E60622-2137-47BC-A7F0-BE074B1EEC89}"/>
-    <hyperlink ref="B33" r:id="rId31" xr:uid="{877953A1-170B-4330-99EC-527C7902B2E8}"/>
-    <hyperlink ref="B34" r:id="rId32" xr:uid="{2342CFBC-0101-403F-9957-7D989013A0F7}"/>
-    <hyperlink ref="B35" r:id="rId33" xr:uid="{0DD9DD92-3DBC-42C6-9A8D-0691EE2122D8}"/>
-    <hyperlink ref="B36" r:id="rId34" xr:uid="{8DD478D9-C6F3-44F3-979A-0F4619894B55}"/>
-    <hyperlink ref="B37" r:id="rId35" xr:uid="{DF6EA006-3C1C-44BE-BD7B-2726B8A9269D}"/>
-    <hyperlink ref="B38" r:id="rId36" xr:uid="{19424D8E-83B3-4395-9C75-CFD5D01B3620}"/>
-    <hyperlink ref="B39" r:id="rId37" xr:uid="{F0678B4A-8AF6-4802-B7BF-583384BFABA1}"/>
-    <hyperlink ref="B40" r:id="rId38" xr:uid="{B4BA252E-42C2-4391-82AC-8208060A6787}"/>
-    <hyperlink ref="B41" r:id="rId39" xr:uid="{D56EC38D-C44B-43DD-B6A3-0CF9174D50D3}"/>
-    <hyperlink ref="B42" r:id="rId40" xr:uid="{B8A5A82F-B0E5-4EDF-802A-A1571555EED8}"/>
-    <hyperlink ref="B43" r:id="rId41" xr:uid="{F336BBFB-46DB-4716-B499-508F7BD60958}"/>
-    <hyperlink ref="B44" r:id="rId42" xr:uid="{2930BC25-2E53-4533-A1E7-9E25A6193043}"/>
-    <hyperlink ref="B45" r:id="rId43" xr:uid="{89D4C5E1-3516-4AD6-B280-22614C86D5B2}"/>
-    <hyperlink ref="B48" r:id="rId44" xr:uid="{5C111A47-F67D-47D4-88FF-D317A950AC76}"/>
-    <hyperlink ref="B49" r:id="rId45" xr:uid="{E1337E79-733A-4818-B947-615A43BBF2A6}"/>
-    <hyperlink ref="B50" r:id="rId46" xr:uid="{41097C98-2CFC-4304-9CE6-C9C72AE1217D}"/>
-    <hyperlink ref="B51" r:id="rId47" xr:uid="{3155FC45-B205-4709-B77E-FD0730EDF37A}"/>
-    <hyperlink ref="B52" r:id="rId48" xr:uid="{0F6F0EED-B077-4BAD-93F2-DFD31D100F7A}"/>
-    <hyperlink ref="B53" r:id="rId49" xr:uid="{7AFF97D0-DDC5-419A-A1A4-82C31A71E6A1}"/>
-    <hyperlink ref="B54" r:id="rId50" xr:uid="{B17FF8F4-BEB4-4670-BE0A-AD1F417CAAB0}"/>
+    <hyperlink ref="B6" r:id="rId1" xr:uid="{04AD04CA-E176-4CA1-9582-37F4EC08AF6F}"/>
+    <hyperlink ref="B4" r:id="rId2" xr:uid="{B438767E-11F2-43E3-B2CF-72FA6E609C3E}"/>
+    <hyperlink ref="B5" r:id="rId3" xr:uid="{23F57276-54E4-4F04-B80A-42B29C85FA3D}"/>
+    <hyperlink ref="B7" r:id="rId4" xr:uid="{2A9974D4-396C-41F9-A88F-F4D4C4A3B7FE}"/>
+    <hyperlink ref="B8" r:id="rId5" xr:uid="{0718806E-D1E9-4C83-8216-AEFE1EA965FE}"/>
+    <hyperlink ref="B9" r:id="rId6" xr:uid="{55B5ED45-F9CC-4E83-B36C-D178420334AB}"/>
+    <hyperlink ref="B10" r:id="rId7" xr:uid="{DB059A95-0108-42F8-84AA-657042A65189}"/>
+    <hyperlink ref="B11" r:id="rId8" xr:uid="{C72D1D00-8DB9-4A01-9269-ABF222DBD0B1}"/>
+    <hyperlink ref="B12" r:id="rId9" xr:uid="{688172DA-61B6-414C-AC34-65271AC38434}"/>
+    <hyperlink ref="B13" r:id="rId10" xr:uid="{FA99C109-95DF-4A27-A531-71BD99F1E8D4}"/>
+    <hyperlink ref="B14" r:id="rId11" xr:uid="{51D2D2E1-0E34-41C6-ACE7-ED385C9F1904}"/>
+    <hyperlink ref="B15" r:id="rId12" xr:uid="{F004BD5C-0300-43DF-BC51-8B6976BBCE86}"/>
+    <hyperlink ref="B16" r:id="rId13" xr:uid="{A42611C3-7F58-4C4D-8330-2C956B5DD576}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{4BE1BFDE-6333-4DF5-9E9C-521923A0F96F}"/>
+    <hyperlink ref="B18" r:id="rId15" xr:uid="{ADA07CC5-4808-494C-A257-B42EA0B46F9C}"/>
+    <hyperlink ref="B19" r:id="rId16" xr:uid="{2704E8CA-DF2F-44A4-9112-FBD57CA14479}"/>
+    <hyperlink ref="B20" r:id="rId17" xr:uid="{4EEAD921-FDB0-41F2-BECB-4F0B218B0C55}"/>
+    <hyperlink ref="B21" r:id="rId18" xr:uid="{01728AF0-B203-493B-A53A-963EEA4906DC}"/>
+    <hyperlink ref="B22" r:id="rId19" xr:uid="{2C8C379B-24E0-448E-BEEF-AD848D228048}"/>
+    <hyperlink ref="B23" r:id="rId20" xr:uid="{E2DB2B7D-ABF4-4493-8FB3-994175926695}"/>
+    <hyperlink ref="B24" r:id="rId21" xr:uid="{5EBFD21F-43F0-4742-8D61-D174DA70AF59}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{BAC6A382-B802-43D6-A341-5A67B7C2CA88}"/>
+    <hyperlink ref="B26" r:id="rId23" xr:uid="{B4F28EDF-D555-4498-ACCE-DDF86B1B9F0A}"/>
+    <hyperlink ref="B27" r:id="rId24" xr:uid="{60F44EFA-38DC-4F28-AA60-CA2B1B50A1D1}"/>
+    <hyperlink ref="B28" r:id="rId25" xr:uid="{D364F64B-F536-4182-A17F-AE260EC06889}"/>
+    <hyperlink ref="B29" r:id="rId26" xr:uid="{B1D97AE3-1172-45C8-A903-D3E1135A21D6}"/>
+    <hyperlink ref="B30" r:id="rId27" xr:uid="{3B0785A4-A17B-4035-81B2-894FE32739F6}"/>
+    <hyperlink ref="B31" r:id="rId28" xr:uid="{468909BE-0CCA-4FB8-8C70-646695CEBC3D}"/>
+    <hyperlink ref="B32" r:id="rId29" xr:uid="{31E60622-2137-47BC-A7F0-BE074B1EEC89}"/>
+    <hyperlink ref="B33" r:id="rId30" xr:uid="{877953A1-170B-4330-99EC-527C7902B2E8}"/>
+    <hyperlink ref="B34" r:id="rId31" xr:uid="{2342CFBC-0101-403F-9957-7D989013A0F7}"/>
+    <hyperlink ref="B35" r:id="rId32" xr:uid="{0DD9DD92-3DBC-42C6-9A8D-0691EE2122D8}"/>
+    <hyperlink ref="B36" r:id="rId33" xr:uid="{8DD478D9-C6F3-44F3-979A-0F4619894B55}"/>
+    <hyperlink ref="B37" r:id="rId34" xr:uid="{DF6EA006-3C1C-44BE-BD7B-2726B8A9269D}"/>
+    <hyperlink ref="B38" r:id="rId35" xr:uid="{19424D8E-83B3-4395-9C75-CFD5D01B3620}"/>
+    <hyperlink ref="B39" r:id="rId36" xr:uid="{F0678B4A-8AF6-4802-B7BF-583384BFABA1}"/>
+    <hyperlink ref="B40" r:id="rId37" xr:uid="{B4BA252E-42C2-4391-82AC-8208060A6787}"/>
+    <hyperlink ref="B41" r:id="rId38" xr:uid="{D56EC38D-C44B-43DD-B6A3-0CF9174D50D3}"/>
+    <hyperlink ref="B42" r:id="rId39" xr:uid="{B8A5A82F-B0E5-4EDF-802A-A1571555EED8}"/>
+    <hyperlink ref="B43" r:id="rId40" xr:uid="{F336BBFB-46DB-4716-B499-508F7BD60958}"/>
+    <hyperlink ref="B44" r:id="rId41" xr:uid="{2930BC25-2E53-4533-A1E7-9E25A6193043}"/>
+    <hyperlink ref="B45" r:id="rId42" xr:uid="{89D4C5E1-3516-4AD6-B280-22614C86D5B2}"/>
+    <hyperlink ref="B48" r:id="rId43" xr:uid="{5C111A47-F67D-47D4-88FF-D317A950AC76}"/>
+    <hyperlink ref="B49" r:id="rId44" xr:uid="{E1337E79-733A-4818-B947-615A43BBF2A6}"/>
+    <hyperlink ref="B50" r:id="rId45" xr:uid="{41097C98-2CFC-4304-9CE6-C9C72AE1217D}"/>
+    <hyperlink ref="B51" r:id="rId46" xr:uid="{3155FC45-B205-4709-B77E-FD0730EDF37A}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{0F6F0EED-B077-4BAD-93F2-DFD31D100F7A}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{7AFF97D0-DDC5-419A-A1A4-82C31A71E6A1}"/>
+    <hyperlink ref="B54" r:id="rId49" xr:uid="{B17FF8F4-BEB4-4670-BE0A-AD1F417CAAB0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/상품목록_이미지입력용.xlsx
+++ b/상품목록_이미지입력용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopping-mission-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DC4423-63DB-48D5-8CA8-04B0723D26A6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB7924-C6AD-4D2D-BCF2-9C4F38A6BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -172,14 +172,6 @@
     <t>DIY 향수 만들기 키트</t>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-clipart/20190905/original/pngtree-piece-of-five-flowered-pork-illustration-png-image_4543895.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.lovepik.com/free-png/20211210/lovepik-potato-png-image_401454602_wh1200.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://previews.123rf.com/images/morphart/morphart1503/morphart150301324/37764104-%EC%8B%A0%EC%84%A0%ED%95%9C-%EB%8B%B9%EA%B7%BC%EC%9D%98-%EB%B2%A1%ED%84%B0-%EC%9D%BC%EB%9F%AC%EC%8A%A4%ED%8A%B8-%EB%A0%88%EC%9D%B4-%EC%85%98.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -204,10 +196,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-clipart/20240510/original/pngtree-garlic-cloves-peeled-cartoon-png-image_15058445.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://mblogthumb-phinf.pstatic.net/MjAyMzA1MTJfMjQ5/MDAxNjgzODcwMTE0Mjk0.K6jvKbr3YI9JvkF0f_UdIh-_5QGc007d9uOB8nG3DMIg.POdKx-A-3fpWxQww34eDIg2-lvjJ5SXBF3SVHkStkYwg.JPEG.cham4lang1/%EC%97%AC%EA%B6%8C%EC%BC%80%EC%9D%B4%EC%8A%A4_(3).jpg?type=w800</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -228,10 +216,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-clipart/20200701/original/pngtree-children-wipes-png-image_5403316.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://www.urbanbrush.net/web/wp-content/uploads/edd/2025/02/UB-202502080858.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -240,34 +224,14 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/element_our/20190604/ourlarge/pngtree-blue-minimalist-slippers-illustration-image_1470255.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://img.freepik.com/premium-vector/gimbap-kimbap-vector-illustration-logo_499212-1770.jpg?semt=ais_hybrid&amp;w=740</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-clipart/20220110/ourmid/pngtree-delicious-fruit-bento-decorative-elements-png-image_4124671.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://png.pngtree.com/element_pic/00/16/09/1857dd91630b310.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://previews.123rf.com/images/kikuogawa/kikuogawa2007/kikuogawa200700127/151176113-illustration-of-bottled-mineral-water-mineral-water.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-clipart/20230820/original/pngtree-glass-of-orange-juice-picture-image_8110897.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://png.pngtree.com/png-vector/20210302/ourmid/pngtree-blue-lid-sunscreen-clip-art-png-image_2986979.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://item.elandrs.com/r/image/item/2023-07-21/a59bfa71-0ea6-4302-87d0-2377a25ffcc8.jpg?w=750&amp;h=&amp;q=100</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -276,10 +240,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-clipart/20190116/ourmid/pngtree-beautiful-socks-knitted-socks-socks-illustration-hand-painted-socks-png-image_406043.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://cdn.crowdpic.net/detail-thumb/thumb_d_9D8A75773FC269FB99EEED01991DB5A2.jpeg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -308,18 +268,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-vector/20250211/ourlarge/pngtree-d-rendered-first-aid-kit-with-a-thermometer-and-medicine-designed-png-image_15442397.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://png.pngtree.com/element_our/20190602/ourmid/pngtree-hanging-note-pattern-illustration-image_1413676.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://png.pngtree.com/png-vector/20190114/ourmid/pngtree-vector-pencil-icon-png-image_313118.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -328,10 +276,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.kids-time.co.kr/web/product/big/202410/2484c3109ada637fa5b6242c6c504dd2.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -340,18 +284,10 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://png.pngtree.com/png-clipart/20230914/original/pngtree-free-board-game-vector-png-image_12161525.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://media.bunjang.co.kr/product/256507143_5_1710287497_w360.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.ygman.co.kr/web/product/big/202405/feb14da855b1dcc4ea10c377fc5b9b77.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://media.istockphoto.com/id/1094558116/ko/%EB%B2%A1%ED%84%B0/%EC%9B%B9-%EC%95%A0%ED%94%8C-%EB%A6%AC-%EC%BC%80%EC%9D%B4-%EC%85%98-%EB%94%94%EC%9E%90%EC%9D%B8-%EB%B2%A1%ED%84%B0-%EC%9D%BC%EB%9F%AC%EC%8A%A4%ED%8A%B8-%EB%A0%88%EC%9D%B4-%EC%85%98%EC%97%90-%EB%8C%80-%ED%95%9C-%ED%9D%B0%EC%83%89-%EC%A0%88%EC%97%B0-%EB%9D%BC%EC%9D%B8-%EB%B8%94%EB%9E%99-%EB%B9%84%EC%A6%88%EB%8B%88%EC%8A%A4-%EB%A7%8C%EB%85%84%ED%95%84.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=bPx7b1497-Ti-5055J9CQ-E-tK81D4PqYFgWTiZC7wY=</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -376,10 +312,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.zeroskinshop.co.kr/web/product/big/202204/9de73c82f236f06c69070c0c33cd766a.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://resources.vortexgaming.io/upload/post/2024/11/01/c83f0d2afaa84a7b982ed2e45d1682d5.png</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -401,6 +333,73 @@
   </si>
   <si>
     <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzvWod7jrXwbGVDGqIbKzGzabEK4ZswLiMkA&amp;s</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/potato-vegetable-cartoon-vector-icon-illustration-food-nature-icon-concept-isolated-premium-vector_138676-5159.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/pork-belly-pan-with-pepper-seeds-tomatoes-spices_1150-22016.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/3d-realistic-garlic-head-whole-vegetable-garlic-cloves-lobules-shuck-peelings_1441-2246.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-psd/wet-wipes-mockup_592453-614.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/white-sandals-summer-footwear-fashion_53876-104478.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/high-angle-view-dessert-table_1048944-29447743.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/sandwich-isolated-white-half_1308-32237.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/fresh-orange-smoothie-poured-glasses_23-2148545413.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-vector/sunscreen-cosmetics-banner_606304-300.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/sock-multicolor-accessory_24877-82350.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/isometric-gastroenterology-composition-with-view-medication-with-tubes-pills-illustration_1284-63536.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/green-slime-toy-woman-hand-isolated-white-top-view_188078-15920.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/hand-drawn-board-games-element_23-2151071910.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/glowing-circle-multi-colored-data-reflects-success-generated-by-ai_188544-30266.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/smartphone-case-crossbody-with-red-long-strap-protective-accessory_419259-137.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -788,14 +787,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B57" sqref="B57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="59.25" customWidth="1"/>
-    <col min="2" max="2" width="90.875" customWidth="1"/>
+    <col min="1" max="1" width="18.625" customWidth="1"/>
+    <col min="2" max="2" width="173.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
@@ -806,7 +805,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>104</v>
+        <v>87</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -814,7 +813,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C2">
         <v>800</v>
@@ -825,7 +824,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>107</v>
+        <v>90</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -836,7 +835,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>51</v>
+        <v>91</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -847,7 +846,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -858,7 +857,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>50</v>
+        <v>92</v>
       </c>
       <c r="C6">
         <v>4000</v>
@@ -869,7 +868,7 @@
         <v>7</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C7">
         <v>6000</v>
@@ -880,7 +879,7 @@
         <v>8</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C8">
         <v>2500</v>
@@ -888,10 +887,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>56</v>
       </c>
       <c r="C9">
         <v>1300</v>
@@ -902,7 +901,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C10">
         <v>2500</v>
@@ -913,7 +912,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>58</v>
+        <v>93</v>
       </c>
       <c r="C11">
         <v>1200</v>
@@ -924,7 +923,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C12">
         <v>5000</v>
@@ -932,10 +931,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>105</v>
+        <v>88</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -946,7 +945,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -957,7 +956,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C15">
         <v>1500</v>
@@ -968,7 +967,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -979,7 +978,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -987,10 +986,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="C18">
         <v>15000</v>
@@ -1001,7 +1000,7 @@
         <v>16</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -1012,7 +1011,7 @@
         <v>17</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>67</v>
+        <v>95</v>
       </c>
       <c r="C20">
         <v>5000</v>
@@ -1023,7 +1022,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="C21">
         <v>3000</v>
@@ -1034,7 +1033,7 @@
         <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="C22">
         <v>5000</v>
@@ -1045,7 +1044,7 @@
         <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>70</v>
+        <v>97</v>
       </c>
       <c r="C23">
         <v>3500</v>
@@ -1056,7 +1055,7 @@
         <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1067,7 +1066,7 @@
         <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>72</v>
+        <v>98</v>
       </c>
       <c r="C25">
         <v>2000</v>
@@ -1078,7 +1077,7 @@
         <v>23</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>73</v>
+        <v>99</v>
       </c>
       <c r="C26">
         <v>5000</v>
@@ -1089,7 +1088,7 @@
         <v>24</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>74</v>
+        <v>65</v>
       </c>
       <c r="C27">
         <v>5000</v>
@@ -1100,7 +1099,7 @@
         <v>25</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>75</v>
+        <v>66</v>
       </c>
       <c r="C28">
         <v>5000</v>
@@ -1111,7 +1110,7 @@
         <v>26</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>76</v>
+        <v>100</v>
       </c>
       <c r="C29">
         <v>2000</v>
@@ -1122,7 +1121,7 @@
         <v>27</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="C30">
         <v>2500</v>
@@ -1133,7 +1132,7 @@
         <v>28</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>78</v>
+        <v>68</v>
       </c>
       <c r="C31">
         <v>1000</v>
@@ -1141,10 +1140,10 @@
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>79</v>
+        <v>69</v>
       </c>
       <c r="C32">
         <v>10000</v>
@@ -1152,10 +1151,10 @@
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>81</v>
+        <v>71</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>82</v>
+        <v>72</v>
       </c>
       <c r="C33">
         <v>500</v>
@@ -1166,7 +1165,7 @@
         <v>29</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>83</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>50000</v>
@@ -1177,7 +1176,7 @@
         <v>30</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>84</v>
+        <v>101</v>
       </c>
       <c r="C35">
         <v>10000</v>
@@ -1188,7 +1187,7 @@
         <v>31</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>85</v>
+        <v>102</v>
       </c>
       <c r="C36">
         <v>2000</v>
@@ -1199,7 +1198,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>86</v>
+        <v>103</v>
       </c>
       <c r="C37">
         <v>1000</v>
@@ -1210,7 +1209,7 @@
         <v>33</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>87</v>
+        <v>74</v>
       </c>
       <c r="C38">
         <v>700000</v>
@@ -1221,7 +1220,7 @@
         <v>34</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>88</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>3000</v>
@@ -1232,7 +1231,7 @@
         <v>37</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="C40">
         <v>5000</v>
@@ -1243,7 +1242,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>90</v>
+        <v>76</v>
       </c>
       <c r="C41">
         <v>50000</v>
@@ -1254,7 +1253,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>91</v>
+        <v>77</v>
       </c>
       <c r="C42">
         <v>8000</v>
@@ -1265,7 +1264,7 @@
         <v>38</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
       <c r="C43">
         <v>15000</v>
@@ -1276,7 +1275,7 @@
         <v>39</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>93</v>
+        <v>78</v>
       </c>
       <c r="C44">
         <v>2500</v>
@@ -1287,7 +1286,7 @@
         <v>40</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="C45">
         <v>3500</v>
@@ -1298,7 +1297,7 @@
         <v>41</v>
       </c>
       <c r="B46" t="s">
-        <v>95</v>
+        <v>79</v>
       </c>
       <c r="C46">
         <v>15000</v>
@@ -1309,7 +1308,7 @@
         <v>42</v>
       </c>
       <c r="B47" t="s">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="C47">
         <v>10000</v>
@@ -1320,7 +1319,7 @@
         <v>43</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>81</v>
       </c>
       <c r="C48">
         <v>3000</v>
@@ -1331,7 +1330,7 @@
         <v>44</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C49">
         <v>7000</v>
@@ -1342,7 +1341,7 @@
         <v>45</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
       <c r="C50">
         <v>15000</v>
@@ -1353,7 +1352,7 @@
         <v>46</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>100</v>
+        <v>84</v>
       </c>
       <c r="C51">
         <v>12000</v>
@@ -1364,7 +1363,7 @@
         <v>47</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>101</v>
+        <v>107</v>
       </c>
       <c r="C52">
         <v>4000</v>
@@ -1375,7 +1374,7 @@
         <v>48</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>102</v>
+        <v>85</v>
       </c>
       <c r="C53">
         <v>5000</v>
@@ -1386,7 +1385,7 @@
         <v>49</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>103</v>
+        <v>86</v>
       </c>
       <c r="C54">
         <v>18000</v>
@@ -1395,55 +1394,54 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B6" r:id="rId1" xr:uid="{04AD04CA-E176-4CA1-9582-37F4EC08AF6F}"/>
-    <hyperlink ref="B4" r:id="rId2" xr:uid="{B438767E-11F2-43E3-B2CF-72FA6E609C3E}"/>
-    <hyperlink ref="B5" r:id="rId3" xr:uid="{23F57276-54E4-4F04-B80A-42B29C85FA3D}"/>
-    <hyperlink ref="B7" r:id="rId4" xr:uid="{2A9974D4-396C-41F9-A88F-F4D4C4A3B7FE}"/>
-    <hyperlink ref="B8" r:id="rId5" xr:uid="{0718806E-D1E9-4C83-8216-AEFE1EA965FE}"/>
-    <hyperlink ref="B9" r:id="rId6" xr:uid="{55B5ED45-F9CC-4E83-B36C-D178420334AB}"/>
-    <hyperlink ref="B10" r:id="rId7" xr:uid="{DB059A95-0108-42F8-84AA-657042A65189}"/>
-    <hyperlink ref="B11" r:id="rId8" xr:uid="{C72D1D00-8DB9-4A01-9269-ABF222DBD0B1}"/>
-    <hyperlink ref="B12" r:id="rId9" xr:uid="{688172DA-61B6-414C-AC34-65271AC38434}"/>
-    <hyperlink ref="B13" r:id="rId10" xr:uid="{FA99C109-95DF-4A27-A531-71BD99F1E8D4}"/>
-    <hyperlink ref="B14" r:id="rId11" xr:uid="{51D2D2E1-0E34-41C6-ACE7-ED385C9F1904}"/>
-    <hyperlink ref="B15" r:id="rId12" xr:uid="{F004BD5C-0300-43DF-BC51-8B6976BBCE86}"/>
-    <hyperlink ref="B16" r:id="rId13" xr:uid="{A42611C3-7F58-4C4D-8330-2C956B5DD576}"/>
-    <hyperlink ref="B17" r:id="rId14" xr:uid="{4BE1BFDE-6333-4DF5-9E9C-521923A0F96F}"/>
-    <hyperlink ref="B18" r:id="rId15" xr:uid="{ADA07CC5-4808-494C-A257-B42EA0B46F9C}"/>
-    <hyperlink ref="B19" r:id="rId16" xr:uid="{2704E8CA-DF2F-44A4-9112-FBD57CA14479}"/>
-    <hyperlink ref="B20" r:id="rId17" xr:uid="{4EEAD921-FDB0-41F2-BECB-4F0B218B0C55}"/>
-    <hyperlink ref="B21" r:id="rId18" xr:uid="{01728AF0-B203-493B-A53A-963EEA4906DC}"/>
-    <hyperlink ref="B22" r:id="rId19" xr:uid="{2C8C379B-24E0-448E-BEEF-AD848D228048}"/>
-    <hyperlink ref="B23" r:id="rId20" xr:uid="{E2DB2B7D-ABF4-4493-8FB3-994175926695}"/>
-    <hyperlink ref="B24" r:id="rId21" xr:uid="{5EBFD21F-43F0-4742-8D61-D174DA70AF59}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{BAC6A382-B802-43D6-A341-5A67B7C2CA88}"/>
-    <hyperlink ref="B26" r:id="rId23" xr:uid="{B4F28EDF-D555-4498-ACCE-DDF86B1B9F0A}"/>
-    <hyperlink ref="B27" r:id="rId24" xr:uid="{60F44EFA-38DC-4F28-AA60-CA2B1B50A1D1}"/>
-    <hyperlink ref="B28" r:id="rId25" xr:uid="{D364F64B-F536-4182-A17F-AE260EC06889}"/>
-    <hyperlink ref="B29" r:id="rId26" xr:uid="{B1D97AE3-1172-45C8-A903-D3E1135A21D6}"/>
-    <hyperlink ref="B30" r:id="rId27" xr:uid="{3B0785A4-A17B-4035-81B2-894FE32739F6}"/>
-    <hyperlink ref="B31" r:id="rId28" xr:uid="{468909BE-0CCA-4FB8-8C70-646695CEBC3D}"/>
-    <hyperlink ref="B32" r:id="rId29" xr:uid="{31E60622-2137-47BC-A7F0-BE074B1EEC89}"/>
-    <hyperlink ref="B33" r:id="rId30" xr:uid="{877953A1-170B-4330-99EC-527C7902B2E8}"/>
-    <hyperlink ref="B34" r:id="rId31" xr:uid="{2342CFBC-0101-403F-9957-7D989013A0F7}"/>
-    <hyperlink ref="B35" r:id="rId32" xr:uid="{0DD9DD92-3DBC-42C6-9A8D-0691EE2122D8}"/>
-    <hyperlink ref="B36" r:id="rId33" xr:uid="{8DD478D9-C6F3-44F3-979A-0F4619894B55}"/>
-    <hyperlink ref="B37" r:id="rId34" xr:uid="{DF6EA006-3C1C-44BE-BD7B-2726B8A9269D}"/>
-    <hyperlink ref="B38" r:id="rId35" xr:uid="{19424D8E-83B3-4395-9C75-CFD5D01B3620}"/>
-    <hyperlink ref="B39" r:id="rId36" xr:uid="{F0678B4A-8AF6-4802-B7BF-583384BFABA1}"/>
-    <hyperlink ref="B40" r:id="rId37" xr:uid="{B4BA252E-42C2-4391-82AC-8208060A6787}"/>
-    <hyperlink ref="B41" r:id="rId38" xr:uid="{D56EC38D-C44B-43DD-B6A3-0CF9174D50D3}"/>
-    <hyperlink ref="B42" r:id="rId39" xr:uid="{B8A5A82F-B0E5-4EDF-802A-A1571555EED8}"/>
-    <hyperlink ref="B43" r:id="rId40" xr:uid="{F336BBFB-46DB-4716-B499-508F7BD60958}"/>
-    <hyperlink ref="B44" r:id="rId41" xr:uid="{2930BC25-2E53-4533-A1E7-9E25A6193043}"/>
-    <hyperlink ref="B45" r:id="rId42" xr:uid="{89D4C5E1-3516-4AD6-B280-22614C86D5B2}"/>
-    <hyperlink ref="B48" r:id="rId43" xr:uid="{5C111A47-F67D-47D4-88FF-D317A950AC76}"/>
-    <hyperlink ref="B49" r:id="rId44" xr:uid="{E1337E79-733A-4818-B947-615A43BBF2A6}"/>
-    <hyperlink ref="B50" r:id="rId45" xr:uid="{41097C98-2CFC-4304-9CE6-C9C72AE1217D}"/>
-    <hyperlink ref="B51" r:id="rId46" xr:uid="{3155FC45-B205-4709-B77E-FD0730EDF37A}"/>
-    <hyperlink ref="B52" r:id="rId47" xr:uid="{0F6F0EED-B077-4BAD-93F2-DFD31D100F7A}"/>
-    <hyperlink ref="B53" r:id="rId48" xr:uid="{7AFF97D0-DDC5-419A-A1A4-82C31A71E6A1}"/>
-    <hyperlink ref="B54" r:id="rId49" xr:uid="{B17FF8F4-BEB4-4670-BE0A-AD1F417CAAB0}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{23F57276-54E4-4F04-B80A-42B29C85FA3D}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{2A9974D4-396C-41F9-A88F-F4D4C4A3B7FE}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{0718806E-D1E9-4C83-8216-AEFE1EA965FE}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{55B5ED45-F9CC-4E83-B36C-D178420334AB}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{DB059A95-0108-42F8-84AA-657042A65189}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{688172DA-61B6-414C-AC34-65271AC38434}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{FA99C109-95DF-4A27-A531-71BD99F1E8D4}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{51D2D2E1-0E34-41C6-ACE7-ED385C9F1904}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{F004BD5C-0300-43DF-BC51-8B6976BBCE86}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{A42611C3-7F58-4C4D-8330-2C956B5DD576}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{ADA07CC5-4808-494C-A257-B42EA0B46F9C}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{2704E8CA-DF2F-44A4-9112-FBD57CA14479}"/>
+    <hyperlink ref="B21" r:id="rId13" xr:uid="{01728AF0-B203-493B-A53A-963EEA4906DC}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{5EBFD21F-43F0-4742-8D61-D174DA70AF59}"/>
+    <hyperlink ref="B27" r:id="rId15" xr:uid="{60F44EFA-38DC-4F28-AA60-CA2B1B50A1D1}"/>
+    <hyperlink ref="B28" r:id="rId16" xr:uid="{D364F64B-F536-4182-A17F-AE260EC06889}"/>
+    <hyperlink ref="B30" r:id="rId17" xr:uid="{3B0785A4-A17B-4035-81B2-894FE32739F6}"/>
+    <hyperlink ref="B31" r:id="rId18" xr:uid="{468909BE-0CCA-4FB8-8C70-646695CEBC3D}"/>
+    <hyperlink ref="B32" r:id="rId19" xr:uid="{31E60622-2137-47BC-A7F0-BE074B1EEC89}"/>
+    <hyperlink ref="B33" r:id="rId20" xr:uid="{877953A1-170B-4330-99EC-527C7902B2E8}"/>
+    <hyperlink ref="B34" r:id="rId21" xr:uid="{2342CFBC-0101-403F-9957-7D989013A0F7}"/>
+    <hyperlink ref="B38" r:id="rId22" xr:uid="{19424D8E-83B3-4395-9C75-CFD5D01B3620}"/>
+    <hyperlink ref="B39" r:id="rId23" xr:uid="{F0678B4A-8AF6-4802-B7BF-583384BFABA1}"/>
+    <hyperlink ref="B41" r:id="rId24" xr:uid="{D56EC38D-C44B-43DD-B6A3-0CF9174D50D3}"/>
+    <hyperlink ref="B42" r:id="rId25" xr:uid="{B8A5A82F-B0E5-4EDF-802A-A1571555EED8}"/>
+    <hyperlink ref="B44" r:id="rId26" xr:uid="{2930BC25-2E53-4533-A1E7-9E25A6193043}"/>
+    <hyperlink ref="B48" r:id="rId27" xr:uid="{5C111A47-F67D-47D4-88FF-D317A950AC76}"/>
+    <hyperlink ref="B49" r:id="rId28" xr:uid="{E1337E79-733A-4818-B947-615A43BBF2A6}"/>
+    <hyperlink ref="B50" r:id="rId29" xr:uid="{41097C98-2CFC-4304-9CE6-C9C72AE1217D}"/>
+    <hyperlink ref="B51" r:id="rId30" xr:uid="{3155FC45-B205-4709-B77E-FD0730EDF37A}"/>
+    <hyperlink ref="B53" r:id="rId31" xr:uid="{7AFF97D0-DDC5-419A-A1A4-82C31A71E6A1}"/>
+    <hyperlink ref="B54" r:id="rId32" xr:uid="{B17FF8F4-BEB4-4670-BE0A-AD1F417CAAB0}"/>
+    <hyperlink ref="B4" r:id="rId33" xr:uid="{552E3267-654A-49AD-B3B0-441F4D29ACD1}"/>
+    <hyperlink ref="B6" r:id="rId34" xr:uid="{AD942EB2-A70A-4C0D-8354-940480266593}"/>
+    <hyperlink ref="B11" r:id="rId35" xr:uid="{680042BF-4B1C-48F7-A98E-F01B951D1B3A}"/>
+    <hyperlink ref="B17" r:id="rId36" xr:uid="{F07E0752-04E3-458A-A531-76BF7246D653}"/>
+    <hyperlink ref="B20" r:id="rId37" xr:uid="{3F8B1459-B311-4F48-B97A-616388109BE0}"/>
+    <hyperlink ref="B22" r:id="rId38" xr:uid="{0E9CD811-21BD-4EE7-8F1A-DEA580BF9700}"/>
+    <hyperlink ref="B23" r:id="rId39" xr:uid="{D8EC14EF-3541-43E7-8783-D21BBBE60E2D}"/>
+    <hyperlink ref="B25" r:id="rId40" xr:uid="{BC5E8F37-719A-46C5-B7EB-3C5CD5F9AD25}"/>
+    <hyperlink ref="B26" r:id="rId41" xr:uid="{16A847E5-9CF5-48CB-99DC-82A7E565F38F}"/>
+    <hyperlink ref="B29" r:id="rId42" xr:uid="{7E756607-98E8-48F6-AB11-98481FCA5540}"/>
+    <hyperlink ref="B35" r:id="rId43" xr:uid="{1ECF752B-B12B-495C-A143-2A3CF540FB49}"/>
+    <hyperlink ref="B37" r:id="rId44" xr:uid="{8063BEE0-05E8-41BE-94D5-E2C20868A173}"/>
+    <hyperlink ref="B40" r:id="rId45" xr:uid="{D97543FB-1444-44AD-BD94-2C54A86C75F8}"/>
+    <hyperlink ref="B43" r:id="rId46" xr:uid="{82D74BD6-EF15-4111-87FC-FF96303E6DA6}"/>
+    <hyperlink ref="B45" r:id="rId47" xr:uid="{D3F5A17D-C81A-419E-A6BC-F9A7DFA11BC8}"/>
+    <hyperlink ref="B52" r:id="rId48" xr:uid="{1D76C945-1B61-4382-AEB0-7D9D86A387FA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/상품목록_이미지입력용.xlsx
+++ b/상품목록_이미지입력용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopping-mission-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7CB7924-C6AD-4D2D-BCF2-9C4F38A6BB0D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5716A8-7A06-4592-B0BD-61617B94F85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
   <si>
     <t>상품명</t>
   </si>
@@ -40,12 +40,6 @@
     <t>당근 (1개)</t>
   </si>
   <si>
-    <t>돼지고기 (200g)</t>
-  </si>
-  <si>
-    <t>소고기 (200g)</t>
-  </si>
-  <si>
     <t>카레가루</t>
   </si>
   <si>
@@ -91,9 +85,6 @@
     <t>오렌지 주스</t>
   </si>
   <si>
-    <t>썬크림</t>
-  </si>
-  <si>
     <t>모자</t>
   </si>
   <si>
@@ -109,9 +100,6 @@
     <t>비누</t>
   </si>
   <si>
-    <t>카메라</t>
-  </si>
-  <si>
     <t>비상약세트</t>
   </si>
   <si>
@@ -130,42 +118,21 @@
     <t>헤드폰</t>
   </si>
   <si>
-    <t>무드등</t>
-  </si>
-  <si>
     <t>슬라임 세트</t>
   </si>
   <si>
     <t>보드게임</t>
   </si>
   <si>
-    <t>브로마이드</t>
-  </si>
-  <si>
-    <t>LED 팔찌</t>
-  </si>
-  <si>
     <t>만년필</t>
   </si>
   <si>
-    <t>헬스 덤벨 (2kg)</t>
-  </si>
-  <si>
-    <t>네일스티커</t>
-  </si>
-  <si>
-    <t>목걸이 (하트)</t>
-  </si>
-  <si>
     <t>필통 (고급형)</t>
   </si>
   <si>
     <t>애니메이션 인형</t>
   </si>
   <si>
-    <t>폰스트랩</t>
-  </si>
-  <si>
     <t>포켓몬 카드</t>
   </si>
   <si>
@@ -180,225 +147,228 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>https://image.utoimage.com/preview/cp907097/2020/06/202006037398_500.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://paxetv.com/news/photo/202308/183799_159356_2047.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.danawa.com/prod_img/large/group_868/434407_1.jpg?_v=20200910162546</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mblogthumb-phinf.pstatic.net/MjAyMzA1MTJfMjQ5/MDAxNjgzODcwMTE0Mjk0.K6jvKbr3YI9JvkF0f_UdIh-_5QGc007d9uOB8nG3DMIg.POdKx-A-3fpWxQww34eDIg2-lvjJ5SXBF3SVHkStkYwg.JPEG.cham4lang1/%EC%97%AC%EA%B6%8C%EC%BC%80%EC%9D%B4%EC%8A%A4_(3).jpg?type=w800</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.daisomall.co.kr/file/PD/20240826/5iRd6WIpXGDdrBhsUjTi1047322_00_005iRd6WIpXGDdrBhsUjTi.jpg/dims/resize/750/optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.011st.com/11dims/resize/1000x1000/quality/75/11src/product/4561316095/B.jpg?83000000</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.daisomall.co.kr/file/PD/20250319/1ggnPDkKCkDoN90WYryG1044427_00_011ggnPDkKCkDoN90WYryG.jpg/dims/resize/750/optimize</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.onoffmarket.com/data/item/202401/1706659846_l1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.urbanbrush.net/web/wp-content/uploads/edd/2025/02/UB-202502080858.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-vector/winter-earmuff-icon-warm-winter-earmuff-simple-illustration-winter-earmuff-vector-illustration_561158-2421.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-vector/gimbap-kimbap-vector-illustration-logo_499212-1770.jpg?semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://previews.123rf.com/images/kikuogawa/kikuogawa2007/kikuogawa200700127/151176113-illustration-of-bottled-mineral-water-mineral-water.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://item.elandrs.com/r/image/item/2023-07-21/a59bfa71-0ea6-4302-87d0-2377a25ffcc8.jpg?w=750&amp;h=&amp;q=100</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.logoyogo.com/web/wp-content/uploads/edd/2023/07/logoyogo-1-2.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.crowdpic.net/detail-thumb/thumb_d_9D8A75773FC269FB99EEED01991DB5A2.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://media.istockphoto.com/id/1094558116/ko/%EB%B2%A1%ED%84%B0/%EC%9B%B9-%EC%95%A0%ED%94%8C-%EB%A6%AC-%EC%BC%80%EC%9D%B4-%EC%85%98-%EB%94%94%EC%9E%90%EC%9D%B8-%EB%B2%A1%ED%84%B0-%EC%9D%BC%EB%9F%AC%EC%8A%A4%ED%8A%B8-%EB%A0%88%EC%9D%B4-%EC%85%98%EC%97%90-%EB%8C%80-%ED%95%9C-%ED%9D%B0%EC%83%89-%EC%A0%88%EC%97%B0-%EB%9D%BC%EC%9D%B8-%EB%B8%94%EB%9E%99-%EB%B9%84%EC%A6%88%EB%8B%88%EC%8A%A4-%EB%A7%8C%EB%85%84%ED%95%84.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=bPx7b1497-Ti-5055J9CQ-E-tK81D4PqYFgWTiZC7wY=</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGj3iVosWCDxd6pWNR52FyPsWi9VSXOvKaKQ&amp;s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sitem.ssgcdn.com/17/36/76/item/1000044763617_i1_750.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://resources.vortexgaming.io/upload/post/2024/11/01/c83f0d2afaa84a7b982ed2e45d1682d5.png</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://i.ytimg.com/vi/jQt4NJ84kkM/maxresdefault.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>가격</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzvWod7jrXwbGVDGqIbKzGzabEK4ZswLiMkA&amp;s</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/potato-vegetable-cartoon-vector-icon-illustration-food-nature-icon-concept-isolated-premium-vector_138676-5159.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/pork-belly-pan-with-pepper-seeds-tomatoes-spices_1150-22016.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/3d-realistic-garlic-head-whole-vegetable-garlic-cloves-lobules-shuck-peelings_1441-2246.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-psd/wet-wipes-mockup_592453-614.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/white-sandals-summer-footwear-fashion_53876-104478.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/high-angle-view-dessert-table_1048944-29447743.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/sandwich-isolated-white-half_1308-32237.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/fresh-orange-smoothie-poured-glasses_23-2148545413.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/sock-multicolor-accessory_24877-82350.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/isometric-gastroenterology-composition-with-view-medication-with-tubes-pills-illustration_1284-63536.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/green-slime-toy-woman-hand-isolated-white-top-view_188078-15920.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-vector/hand-drawn-board-games-element_23-2151071910.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>햇반</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://image.utoimage.com/preview/cp907097/2020/06/202006037398_500.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://paxetv.com/news/photo/202308/183799_159356_2047.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.danawa.com/prod_img/large/group_868/434407_1.jpg?_v=20200910162546</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://mblogthumb-phinf.pstatic.net/MjAyMzA1MTJfMjQ5/MDAxNjgzODcwMTE0Mjk0.K6jvKbr3YI9JvkF0f_UdIh-_5QGc007d9uOB8nG3DMIg.POdKx-A-3fpWxQww34eDIg2-lvjJ5SXBF3SVHkStkYwg.JPEG.cham4lang1/%EC%97%AC%EA%B6%8C%EC%BC%80%EC%9D%B4%EC%8A%A4_(3).jpg?type=w800</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.daisomall.co.kr/file/PD/20240826/5iRd6WIpXGDdrBhsUjTi1047322_00_005iRd6WIpXGDdrBhsUjTi.jpg/dims/resize/750/optimize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.011st.com/11dims/resize/1000x1000/quality/75/11src/product/4561316095/B.jpg?83000000</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.daisomall.co.kr/file/PD/20250319/1ggnPDkKCkDoN90WYryG1044427_00_011ggnPDkKCkDoN90WYryG.jpg/dims/resize/750/optimize</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.onoffmarket.com/data/item/202401/1706659846_l1</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.urbanbrush.net/web/wp-content/uploads/edd/2025/02/UB-202502080858.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-vector/winter-earmuff-icon-warm-winter-earmuff-simple-illustration-winter-earmuff-vector-illustration_561158-2421.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-vector/gimbap-kimbap-vector-illustration-logo_499212-1770.jpg?semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://previews.123rf.com/images/kikuogawa/kikuogawa2007/kikuogawa200700127/151176113-illustration-of-bottled-mineral-water-mineral-water.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://item.elandrs.com/r/image/item/2023-07-21/a59bfa71-0ea6-4302-87d0-2377a25ffcc8.jpg?w=750&amp;h=&amp;q=100</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.logoyogo.com/web/wp-content/uploads/edd/2023/07/logoyogo-1-2.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cdn.crowdpic.net/detail-thumb/thumb_d_9D8A75773FC269FB99EEED01991DB5A2.jpeg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://www.shutterstock.com/image-vector/water-bottle-reusable-ecofriendly-tumbler-260nw-2268803191.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>텀블러</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>여행 손가방</t>
+  </si>
+  <si>
+    <t>보조배터리</t>
   </si>
   <si>
     <t>쓰레기봉지</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-vector/cute-digital-camera-illustration-with-say-cheese-text_510538-266.jpg?semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://image.idus.com/image/files/5fc9a6119ae24612b626f22108ab6880.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.bunjang.co.kr/product/256507143_5_1710287497_w360.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/id/1094558116/ko/%EB%B2%A1%ED%84%B0/%EC%9B%B9-%EC%95%A0%ED%94%8C-%EB%A6%AC-%EC%BC%80%EC%9D%B4-%EC%85%98-%EB%94%94%EC%9E%90%EC%9D%B8-%EB%B2%A1%ED%84%B0-%EC%9D%BC%EB%9F%AC%EC%8A%A4%ED%8A%B8-%EB%A0%88%EC%9D%B4-%EC%85%98%EC%97%90-%EB%8C%80-%ED%95%9C-%ED%9D%B0%EC%83%89-%EC%A0%88%EC%97%B0-%EB%9D%BC%EC%9D%B8-%EB%B8%94%EB%9E%99-%EB%B9%84%EC%A6%88%EB%8B%88%EC%8A%A4-%EB%A7%8C%EB%85%84%ED%95%84.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=bPx7b1497-Ti-5055J9CQ-E-tK81D4PqYFgWTiZC7wY=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://media.istockphoto.com/id/1281227425/ko/%EB%B2%A1%ED%84%B0/%ED%9D%B0%EC%83%89-%EB%B0%B0%EA%B2%BD%EC%97%90-%EA%B2%A9%EB%A6%AC-%EB%90%9C-%EC%9A%B4%EB%8F%99-%EB%B2%A1%ED%84%B0-%EB%A7%8C%ED%99%94%EC%84%B8%ED%8A%B8%EC%9D%98-%EC%95%84%EB%A0%B9.jpg?s=612x612&amp;w=0&amp;k=20&amp;c=mjNTEWYzNQLdcuNEzcF9GCbRy6lmQwjcEwGRu9TR8ak=</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://cafe24img.poxo.com/2030guild/web/product/big/202007/86829642750103381e0244bd1563c8d7.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://blog.kakaocdn.net/dn/bc4Xb4/btsrCwS25YE/xb955SNHzFlmtNh6UJntk0/img.webp</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGj3iVosWCDxd6pWNR52FyPsWi9VSXOvKaKQ&amp;s</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://sitem.ssgcdn.com/17/36/76/item/1000044763617_i1_750.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://resources.vortexgaming.io/upload/post/2024/11/01/c83f0d2afaa84a7b982ed2e45d1682d5.png</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://i.ytimg.com/vi/jQt4NJ84kkM/maxresdefault.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>가격</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>여행 손가방</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>보조배터리</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzvWod7jrXwbGVDGqIbKzGzabEK4ZswLiMkA&amp;s</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/potato-vegetable-cartoon-vector-icon-illustration-food-nature-icon-concept-isolated-premium-vector_138676-5159.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/pork-belly-pan-with-pepper-seeds-tomatoes-spices_1150-22016.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/3d-realistic-garlic-head-whole-vegetable-garlic-cloves-lobules-shuck-peelings_1441-2246.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-psd/wet-wipes-mockup_592453-614.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/white-sandals-summer-footwear-fashion_53876-104478.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-photo/high-angle-view-dessert-table_1048944-29447743.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/sandwich-isolated-white-half_1308-32237.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/fresh-orange-smoothie-poured-glasses_23-2148545413.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-vector/sunscreen-cosmetics-banner_606304-300.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/sock-multicolor-accessory_24877-82350.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/isometric-gastroenterology-composition-with-view-medication-with-tubes-pills-illustration_1284-63536.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-photo/green-slime-toy-woman-hand-isolated-white-top-view_188078-15920.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/hand-drawn-board-games-element_23-2151071910.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-photo/glowing-circle-multi-colored-data-reflects-success-generated-by-ai_188544-30266.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/premium-photo/smartphone-case-crossbody-with-red-long-strap-protective-accessory_419259-137.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+  </si>
+  <si>
+    <t>재사용 수저세트</t>
+  </si>
+  <si>
+    <t>썬크림 SPF 30+</t>
+  </si>
+  <si>
+    <t>썬크림 SPF 50+++</t>
+  </si>
+  <si>
+    <t>생수 (일회용)</t>
+  </si>
+  <si>
+    <t>물병 (다회용)</t>
+  </si>
+  <si>
+    <t>일회용 수저세트(5개)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://sitem.ssgcdn.com/92/54/14/item/1000056145492_i1_750.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thumbnail8.coupangcdn.com/thumbnails/remote/492x492ex/image/vendor_inventory/679a/0d064f3ec7a3569ae501264e1b4f8f27dfd37bf6a5dad8377b55529966b1.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>돼지고기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>소고기</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://mcgrocer.com/cdn/shop/files/nivea-sun-sun-cream-lotion-spf30-water-resistant-travel-size-100ml-41391352283374.jpg?v=1744443736</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.011st.com/11dims/resize/2000x2000/quality/75/11src/product/1065481169/B.jpg?924372127</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://cdn.imweb.me/thumbnail/20200407/942848fe73ef5.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.danawa.com/prod_img/500000/452/449/img/19449452_1.jpg?_v=20231121154047&amp;shrink=360:360</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -474,12 +444,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -787,8 +758,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B57" sqref="B57"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -805,7 +776,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>87</v>
+        <v>66</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -813,7 +784,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C2">
         <v>800</v>
@@ -824,7 +795,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>90</v>
+        <v>67</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -835,7 +806,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>91</v>
+        <v>68</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -846,7 +817,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>50</v>
+        <v>39</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -854,21 +825,21 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>92</v>
+        <v>69</v>
       </c>
       <c r="C6">
-        <v>4000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>95</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C7">
         <v>6000</v>
@@ -876,10 +847,10 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="C8">
         <v>2500</v>
@@ -887,10 +858,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>82</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C9">
         <v>1300</v>
@@ -898,10 +869,10 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="C10">
         <v>2500</v>
@@ -909,10 +880,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
       <c r="C11">
         <v>1200</v>
@@ -920,10 +891,10 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>56</v>
+        <v>44</v>
       </c>
       <c r="C12">
         <v>5000</v>
@@ -931,10 +902,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>57</v>
+        <v>45</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -942,10 +913,10 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>58</v>
+        <v>46</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -953,10 +924,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>59</v>
+        <v>47</v>
       </c>
       <c r="C15">
         <v>1500</v>
@@ -964,10 +935,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -975,10 +946,10 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -986,10 +957,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="C18">
         <v>15000</v>
@@ -997,10 +968,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -1008,10 +979,10 @@
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="C20">
         <v>5000</v>
@@ -1019,10 +990,10 @@
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C21">
         <v>3000</v>
@@ -1030,32 +1001,32 @@
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>96</v>
+        <v>73</v>
       </c>
       <c r="C22">
-        <v>5000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>97</v>
+        <v>74</v>
       </c>
       <c r="C23">
-        <v>3500</v>
+        <v>2500</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>64</v>
+        <v>52</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1063,134 +1034,134 @@
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="C25">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="C26">
-        <v>5000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>65</v>
+        <v>54</v>
       </c>
       <c r="C27">
-        <v>5000</v>
+        <v>3500</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>66</v>
+        <v>76</v>
       </c>
       <c r="C28">
-        <v>5000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
       <c r="C29">
-        <v>2000</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>67</v>
+        <v>56</v>
       </c>
       <c r="C30">
-        <v>2500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>68</v>
+        <v>57</v>
       </c>
       <c r="C31">
-        <v>1000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="C32">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="C33">
-        <v>500</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C34">
-        <v>50000</v>
+        <v>500</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>101</v>
+        <v>58</v>
       </c>
       <c r="C35">
-        <v>10000</v>
+        <v>300000</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>102</v>
+        <v>59</v>
       </c>
       <c r="C36">
-        <v>2000</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
@@ -1198,40 +1169,40 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="C37">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>74</v>
+        <v>60</v>
       </c>
       <c r="C38">
-        <v>700000</v>
+        <v>20000</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="C39">
-        <v>3000</v>
+        <v>15000</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>104</v>
+        <v>61</v>
       </c>
       <c r="C40">
         <v>5000</v>
@@ -1242,10 +1213,10 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>76</v>
+        <v>62</v>
       </c>
       <c r="C41">
-        <v>50000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
@@ -1253,7 +1224,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
       <c r="C42">
         <v>8000</v>
@@ -1261,187 +1232,149 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="C43">
-        <v>15000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>39</v>
-      </c>
-      <c r="B44" s="2" t="s">
-        <v>78</v>
+        <v>38</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>65</v>
       </c>
       <c r="C44">
-        <v>2500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>40</v>
+        <v>91</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C45">
-        <v>3500</v>
+        <v>500</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>41</v>
-      </c>
-      <c r="B46" t="s">
-        <v>79</v>
+        <v>86</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="C46">
-        <v>15000</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>42</v>
-      </c>
-      <c r="B47" t="s">
-        <v>80</v>
+        <v>87</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="C47">
-        <v>10000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>43</v>
+        <v>88</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>81</v>
+        <v>97</v>
       </c>
       <c r="C48">
-        <v>3000</v>
+        <v>7000</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>44</v>
+        <v>89</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>82</v>
+        <v>98</v>
       </c>
       <c r="C49">
-        <v>7000</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>45</v>
+        <v>90</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="C50">
-        <v>15000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" t="s">
-        <v>46</v>
-      </c>
-      <c r="B51" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C51">
-        <v>12000</v>
-      </c>
+      <c r="B51" s="2"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" t="s">
-        <v>47</v>
-      </c>
-      <c r="B52" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="C52">
-        <v>4000</v>
-      </c>
+      <c r="B52" s="2"/>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" t="s">
-        <v>48</v>
-      </c>
-      <c r="B53" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C53">
-        <v>5000</v>
-      </c>
+      <c r="B53" s="2"/>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A54" t="s">
-        <v>49</v>
-      </c>
-      <c r="B54" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="C54">
-        <v>18000</v>
-      </c>
+      <c r="B54" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{23F57276-54E4-4F04-B80A-42B29C85FA3D}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{2A9974D4-396C-41F9-A88F-F4D4C4A3B7FE}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{0718806E-D1E9-4C83-8216-AEFE1EA965FE}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{55B5ED45-F9CC-4E83-B36C-D178420334AB}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{DB059A95-0108-42F8-84AA-657042A65189}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{688172DA-61B6-414C-AC34-65271AC38434}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{FA99C109-95DF-4A27-A531-71BD99F1E8D4}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{51D2D2E1-0E34-41C6-ACE7-ED385C9F1904}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{F004BD5C-0300-43DF-BC51-8B6976BBCE86}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{A42611C3-7F58-4C4D-8330-2C956B5DD576}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{ADA07CC5-4808-494C-A257-B42EA0B46F9C}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{2704E8CA-DF2F-44A4-9112-FBD57CA14479}"/>
-    <hyperlink ref="B21" r:id="rId13" xr:uid="{01728AF0-B203-493B-A53A-963EEA4906DC}"/>
-    <hyperlink ref="B24" r:id="rId14" xr:uid="{5EBFD21F-43F0-4742-8D61-D174DA70AF59}"/>
-    <hyperlink ref="B27" r:id="rId15" xr:uid="{60F44EFA-38DC-4F28-AA60-CA2B1B50A1D1}"/>
-    <hyperlink ref="B28" r:id="rId16" xr:uid="{D364F64B-F536-4182-A17F-AE260EC06889}"/>
-    <hyperlink ref="B30" r:id="rId17" xr:uid="{3B0785A4-A17B-4035-81B2-894FE32739F6}"/>
-    <hyperlink ref="B31" r:id="rId18" xr:uid="{468909BE-0CCA-4FB8-8C70-646695CEBC3D}"/>
-    <hyperlink ref="B32" r:id="rId19" xr:uid="{31E60622-2137-47BC-A7F0-BE074B1EEC89}"/>
-    <hyperlink ref="B33" r:id="rId20" xr:uid="{877953A1-170B-4330-99EC-527C7902B2E8}"/>
-    <hyperlink ref="B34" r:id="rId21" xr:uid="{2342CFBC-0101-403F-9957-7D989013A0F7}"/>
-    <hyperlink ref="B38" r:id="rId22" xr:uid="{19424D8E-83B3-4395-9C75-CFD5D01B3620}"/>
-    <hyperlink ref="B39" r:id="rId23" xr:uid="{F0678B4A-8AF6-4802-B7BF-583384BFABA1}"/>
-    <hyperlink ref="B41" r:id="rId24" xr:uid="{D56EC38D-C44B-43DD-B6A3-0CF9174D50D3}"/>
-    <hyperlink ref="B42" r:id="rId25" xr:uid="{B8A5A82F-B0E5-4EDF-802A-A1571555EED8}"/>
-    <hyperlink ref="B44" r:id="rId26" xr:uid="{2930BC25-2E53-4533-A1E7-9E25A6193043}"/>
-    <hyperlink ref="B48" r:id="rId27" xr:uid="{5C111A47-F67D-47D4-88FF-D317A950AC76}"/>
-    <hyperlink ref="B49" r:id="rId28" xr:uid="{E1337E79-733A-4818-B947-615A43BBF2A6}"/>
-    <hyperlink ref="B50" r:id="rId29" xr:uid="{41097C98-2CFC-4304-9CE6-C9C72AE1217D}"/>
-    <hyperlink ref="B51" r:id="rId30" xr:uid="{3155FC45-B205-4709-B77E-FD0730EDF37A}"/>
-    <hyperlink ref="B53" r:id="rId31" xr:uid="{7AFF97D0-DDC5-419A-A1A4-82C31A71E6A1}"/>
-    <hyperlink ref="B54" r:id="rId32" xr:uid="{B17FF8F4-BEB4-4670-BE0A-AD1F417CAAB0}"/>
-    <hyperlink ref="B4" r:id="rId33" xr:uid="{552E3267-654A-49AD-B3B0-441F4D29ACD1}"/>
-    <hyperlink ref="B6" r:id="rId34" xr:uid="{AD942EB2-A70A-4C0D-8354-940480266593}"/>
-    <hyperlink ref="B11" r:id="rId35" xr:uid="{680042BF-4B1C-48F7-A98E-F01B951D1B3A}"/>
-    <hyperlink ref="B17" r:id="rId36" xr:uid="{F07E0752-04E3-458A-A531-76BF7246D653}"/>
-    <hyperlink ref="B20" r:id="rId37" xr:uid="{3F8B1459-B311-4F48-B97A-616388109BE0}"/>
-    <hyperlink ref="B22" r:id="rId38" xr:uid="{0E9CD811-21BD-4EE7-8F1A-DEA580BF9700}"/>
-    <hyperlink ref="B23" r:id="rId39" xr:uid="{D8EC14EF-3541-43E7-8783-D21BBBE60E2D}"/>
-    <hyperlink ref="B25" r:id="rId40" xr:uid="{BC5E8F37-719A-46C5-B7EB-3C5CD5F9AD25}"/>
-    <hyperlink ref="B26" r:id="rId41" xr:uid="{16A847E5-9CF5-48CB-99DC-82A7E565F38F}"/>
-    <hyperlink ref="B29" r:id="rId42" xr:uid="{7E756607-98E8-48F6-AB11-98481FCA5540}"/>
-    <hyperlink ref="B35" r:id="rId43" xr:uid="{1ECF752B-B12B-495C-A143-2A3CF540FB49}"/>
-    <hyperlink ref="B37" r:id="rId44" xr:uid="{8063BEE0-05E8-41BE-94D5-E2C20868A173}"/>
-    <hyperlink ref="B40" r:id="rId45" xr:uid="{D97543FB-1444-44AD-BD94-2C54A86C75F8}"/>
-    <hyperlink ref="B43" r:id="rId46" xr:uid="{82D74BD6-EF15-4111-87FC-FF96303E6DA6}"/>
-    <hyperlink ref="B45" r:id="rId47" xr:uid="{D3F5A17D-C81A-419E-A6BC-F9A7DFA11BC8}"/>
-    <hyperlink ref="B52" r:id="rId48" xr:uid="{1D76C945-1B61-4382-AEB0-7D9D86A387FA}"/>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{78C13B07-DFAD-43BB-98C1-9BF4CA8F3CEF}"/>
+    <hyperlink ref="B7" r:id="rId2" xr:uid="{3B8827D8-1414-477E-8F8A-CC77B99F1683}"/>
+    <hyperlink ref="B8" r:id="rId3" xr:uid="{EE0796E1-0FA6-4318-B4DF-253CC96B7021}"/>
+    <hyperlink ref="B9" r:id="rId4" xr:uid="{84E25A02-BA13-4FEB-8F25-4212399FB372}"/>
+    <hyperlink ref="B10" r:id="rId5" xr:uid="{84C3FE1E-1213-4552-864D-BC92C06C6792}"/>
+    <hyperlink ref="B12" r:id="rId6" xr:uid="{2ECD242E-0B39-49C2-835A-46D3014F6C07}"/>
+    <hyperlink ref="B13" r:id="rId7" xr:uid="{7C039661-E7AD-4C93-AA16-F46951B53BA7}"/>
+    <hyperlink ref="B14" r:id="rId8" xr:uid="{D89D60F4-CB32-4F82-8669-BFCC27245755}"/>
+    <hyperlink ref="B15" r:id="rId9" xr:uid="{F3309690-ECB9-44F2-A68D-0EE3547130E7}"/>
+    <hyperlink ref="B16" r:id="rId10" xr:uid="{2CF851A4-780E-453A-A23B-942785772909}"/>
+    <hyperlink ref="B18" r:id="rId11" xr:uid="{8DC46809-68DB-4541-8AE3-FDADA050C3C1}"/>
+    <hyperlink ref="B19" r:id="rId12" xr:uid="{A06B208A-2E1F-4EF6-98B5-0A49F921DAEC}"/>
+    <hyperlink ref="B21" r:id="rId13" xr:uid="{446E194D-E139-4A8B-85FC-6B7408820CBF}"/>
+    <hyperlink ref="B24" r:id="rId14" xr:uid="{947B9CB8-0968-40DB-802B-4B5584624611}"/>
+    <hyperlink ref="B4" r:id="rId15" xr:uid="{9A479564-7F06-4173-8FF3-B71F6C204A4E}"/>
+    <hyperlink ref="B6" r:id="rId16" xr:uid="{BA3033B5-44AF-4CA4-9EFD-BF90151DFB17}"/>
+    <hyperlink ref="B11" r:id="rId17" xr:uid="{A1857489-CBBD-4FF3-9692-A0FAA2EEC9B9}"/>
+    <hyperlink ref="B17" r:id="rId18" xr:uid="{4B5A689B-1E58-47D5-9270-9EFF2018B763}"/>
+    <hyperlink ref="B20" r:id="rId19" xr:uid="{18004D09-A0F8-4BC3-8542-FE2057F515E1}"/>
+    <hyperlink ref="B22" r:id="rId20" xr:uid="{68E8175F-7187-4C9E-8DB4-949A4B73EF1F}"/>
+    <hyperlink ref="B23" r:id="rId21" xr:uid="{AC858697-DA5D-4665-812B-CBF4B910825F}"/>
+    <hyperlink ref="B25" r:id="rId22" xr:uid="{E9150330-CB1F-40C3-A24B-D955CFE6AB87}"/>
+    <hyperlink ref="B26" r:id="rId23" display="https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740" xr:uid="{EA04D4CD-4016-48F6-AD21-33485AD68CE1}"/>
+    <hyperlink ref="B27" r:id="rId24" display="https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg" xr:uid="{A23719D7-B449-42C4-94AB-70DCFCDB0CEE}"/>
+    <hyperlink ref="B29" r:id="rId25" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s" xr:uid="{D6018872-5D4D-4C2C-8F68-2A2B2E013AE6}"/>
+    <hyperlink ref="B30" r:id="rId26" display="https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg" xr:uid="{8DE09D78-C007-482A-8183-FA99B9549C60}"/>
+    <hyperlink ref="B28" r:id="rId27" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s" xr:uid="{EF78017C-7B07-4B27-97E6-AA472E76E484}"/>
+    <hyperlink ref="B31" r:id="rId28" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGj3iVosWCDxd6pWNR52FyPsWi9VSXOvKaKQ&amp;s" xr:uid="{A41497A2-3022-4802-A144-00BE0312A3E2}"/>
+    <hyperlink ref="B35" r:id="rId29" display="https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740" xr:uid="{71D06FA4-42BF-4ACC-95A9-3CB7EB558360}"/>
+    <hyperlink ref="B36" r:id="rId30" display="https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg" xr:uid="{E4B9C092-85FB-4C4D-9485-AA7C31D48409}"/>
+    <hyperlink ref="B38" r:id="rId31" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s" xr:uid="{6C713B61-1811-49EE-91B7-DC9F35C1E879}"/>
+    <hyperlink ref="B32" r:id="rId32" display="https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg" xr:uid="{4E9D8FD3-DE1F-4EF8-9E63-A642B26FA68C}"/>
+    <hyperlink ref="B34" r:id="rId33" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s" xr:uid="{C6E5D2B6-2736-46D1-A68A-76D2AFDAE11C}"/>
+    <hyperlink ref="B42" r:id="rId34" xr:uid="{72C5B577-F2DF-4C02-BED0-A9EA8203FF9E}"/>
+    <hyperlink ref="B43" r:id="rId35" xr:uid="{219C1945-2933-4B41-B5B4-000EFD33F6B6}"/>
+    <hyperlink ref="B44" r:id="rId36" xr:uid="{652617E4-D03B-4640-872C-163EAE730F8A}"/>
+    <hyperlink ref="B45" r:id="rId37" xr:uid="{59FE2BC7-0542-4CFE-BA0E-1F8A841F7AAE}"/>
+    <hyperlink ref="B46" r:id="rId38" xr:uid="{2076AD90-2389-46D5-9CFF-D6343F58298F}"/>
+    <hyperlink ref="B47" r:id="rId39" xr:uid="{BBA63EAF-95F5-4F63-B44F-EA8A6AE55416}"/>
+    <hyperlink ref="B48" r:id="rId40" xr:uid="{EE9F1DE9-0EC4-4873-89D9-D56927C129EF}"/>
+    <hyperlink ref="B49" r:id="rId41" xr:uid="{04D0DC85-39EB-4910-8D27-68D2AE48F702}"/>
+    <hyperlink ref="B50" r:id="rId42" xr:uid="{28FEF591-6CFA-4F33-AD90-C0D2E0DAB13E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/상품목록_이미지입력용.xlsx
+++ b/상품목록_이미지입력용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopping-mission-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A5716A8-7A06-4592-B0BD-61617B94F85E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8C537-2E91-412D-B424-E6EAEE0ED904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="32745" yWindow="1905" windowWidth="21840" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
   <si>
     <t>상품명</t>
   </si>
@@ -139,14 +139,6 @@
     <t>DIY 향수 만들기 키트</t>
   </si>
   <si>
-    <t>https://previews.123rf.com/images/morphart/morphart1503/morphart150301324/37764104-%EC%8B%A0%EC%84%A0%ED%95%9C-%EB%8B%B9%EA%B7%BC%EC%9D%98-%EB%B2%A1%ED%84%B0-%EC%9D%BC%EB%9F%AC%EC%8A%A4%ED%8A%B8-%EB%A0%88%EC%9D%B4-%EC%85%98.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/brisket-butcher-meat-cut-icon_18591-82302.jpg?semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://image.utoimage.com/preview/cp907097/2020/06/202006037398_500.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -183,10 +175,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://img.freepik.com/premium-vector/winter-earmuff-icon-warm-winter-earmuff-simple-illustration-winter-earmuff-vector-illustration_561158-2421.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://img.freepik.com/premium-vector/gimbap-kimbap-vector-illustration-logo_499212-1770.jpg?semt=ais_hybrid&amp;w=740</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -251,13 +239,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTzvWod7jrXwbGVDGqIbKzGzabEK4ZswLiMkA&amp;s</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/potato-vegetable-cartoon-vector-icon-illustration-food-nature-icon-concept-isolated-premium-vector_138676-5159.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://img.freepik.com/free-photo/pork-belly-pan-with-pepper-seeds-tomatoes-spices_1150-22016.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -295,9 +276,6 @@
   </si>
   <si>
     <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
-  </si>
-  <si>
-    <t>https://img.freepik.com/free-vector/pencil-round-smooth-style_78370-7571.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
@@ -330,9 +308,6 @@
     <t>썬크림 SPF 50+++</t>
   </si>
   <si>
-    <t>생수 (일회용)</t>
-  </si>
-  <si>
     <t>물병 (다회용)</t>
   </si>
   <si>
@@ -364,11 +339,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://cdn.imweb.me/thumbnail/20200407/942848fe73ef5.jpg</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>https://img.danawa.com/prod_img/500000/452/449/img/19449452_1.jpg?_v=20231121154047&amp;shrink=360:360</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://www.livesnews.com/data/photos/20210831/art_16278951020482_c6e72e.bmp</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://thumb.photo-ac.com/23/2310e6bc4196a6e1438fe5824320557b_t.jpeg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSIt9HL6fSoJlNxmwv730iUqf4br1gWuPlHbA&amp;s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcRgU3vEZ6MTEiPq6vCq45ChdEFXgecFGSwlHA&amp;s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/pieces-raw-fresh-meat-isolated-black-stone-board-side_346278-821.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.dansoon.co.kr/web/product/big/201811/2fb6bd67b02fe7c1963292340af0d6fa.jpg</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/set-colored-earplugs-white-background-reusable-silicone-rubber-ear-plug-cord-against-noise-protect-hear-swim-sleep-rest-creative-aesthetic-flat-lay-view-pastel-tones_99432-11469.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -758,8 +757,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B55" sqref="B55"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -776,7 +775,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
@@ -784,7 +783,7 @@
         <v>2</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>67</v>
+        <v>92</v>
       </c>
       <c r="C2">
         <v>800</v>
@@ -795,7 +794,7 @@
         <v>3</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>67</v>
+        <v>93</v>
       </c>
       <c r="C3">
         <v>2000</v>
@@ -806,7 +805,7 @@
         <v>4</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>94</v>
       </c>
       <c r="C4">
         <v>1500</v>
@@ -817,7 +816,7 @@
         <v>5</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>39</v>
+        <v>95</v>
       </c>
       <c r="C5">
         <v>1000</v>
@@ -825,10 +824,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="C6">
         <v>3500</v>
@@ -836,10 +835,10 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C7">
         <v>6000</v>
@@ -850,7 +849,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C8">
         <v>2500</v>
@@ -858,10 +857,10 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C9">
         <v>1300</v>
@@ -872,7 +871,7 @@
         <v>7</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C10">
         <v>2500</v>
@@ -883,7 +882,7 @@
         <v>8</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="C11">
         <v>1200</v>
@@ -894,7 +893,7 @@
         <v>9</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C12">
         <v>5000</v>
@@ -902,10 +901,10 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C13">
         <v>5000</v>
@@ -916,7 +915,7 @@
         <v>10</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C14">
         <v>1000</v>
@@ -927,7 +926,7 @@
         <v>11</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C15">
         <v>1500</v>
@@ -938,7 +937,7 @@
         <v>12</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C16">
         <v>5000</v>
@@ -949,7 +948,7 @@
         <v>13</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="C17">
         <v>2000</v>
@@ -957,10 +956,10 @@
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C18">
         <v>15000</v>
@@ -971,7 +970,7 @@
         <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>50</v>
+        <v>98</v>
       </c>
       <c r="C19">
         <v>1000</v>
@@ -982,7 +981,7 @@
         <v>15</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="C20">
         <v>5000</v>
@@ -993,7 +992,7 @@
         <v>16</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="C21">
         <v>3000</v>
@@ -1004,7 +1003,7 @@
         <v>17</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="C22">
         <v>3500</v>
@@ -1015,7 +1014,7 @@
         <v>18</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="C23">
         <v>2500</v>
@@ -1026,7 +1025,7 @@
         <v>19</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="C24">
         <v>1000</v>
@@ -1037,7 +1036,7 @@
         <v>20</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="C25">
         <v>1500</v>
@@ -1048,7 +1047,7 @@
         <v>21</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="C26">
         <v>3000</v>
@@ -1059,7 +1058,7 @@
         <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="C27">
         <v>3500</v>
@@ -1070,7 +1069,7 @@
         <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="C28">
         <v>1000</v>
@@ -1081,7 +1080,7 @@
         <v>24</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C29">
         <v>1500</v>
@@ -1092,7 +1091,7 @@
         <v>25</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C30">
         <v>1000</v>
@@ -1100,10 +1099,10 @@
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C31">
         <v>500</v>
@@ -1114,7 +1113,7 @@
         <v>26</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="C32">
         <v>3000</v>
@@ -1125,7 +1124,7 @@
         <v>27</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>78</v>
+        <v>97</v>
       </c>
       <c r="C33">
         <v>1000</v>
@@ -1136,7 +1135,7 @@
         <v>28</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="C34">
         <v>500</v>
@@ -1147,7 +1146,7 @@
         <v>29</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="C35">
         <v>300000</v>
@@ -1158,7 +1157,7 @@
         <v>30</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="C36">
         <v>4000</v>
@@ -1169,7 +1168,7 @@
         <v>32</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="C37">
         <v>3000</v>
@@ -1180,7 +1179,7 @@
         <v>31</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="C38">
         <v>20000</v>
@@ -1191,7 +1190,7 @@
         <v>33</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="C39">
         <v>15000</v>
@@ -1202,7 +1201,7 @@
         <v>34</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="C40">
         <v>5000</v>
@@ -1213,7 +1212,7 @@
         <v>35</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="C41">
         <v>5000</v>
@@ -1224,7 +1223,7 @@
         <v>36</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="C42">
         <v>8000</v>
@@ -1235,7 +1234,7 @@
         <v>37</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="C43">
         <v>3000</v>
@@ -1246,7 +1245,7 @@
         <v>38</v>
       </c>
       <c r="B44" s="3" t="s">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="C44">
         <v>4000</v>
@@ -1254,10 +1253,10 @@
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>91</v>
+        <v>84</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
       <c r="C45">
         <v>500</v>
@@ -1265,10 +1264,10 @@
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
+        <v>80</v>
+      </c>
+      <c r="B46" s="2" t="s">
         <v>86</v>
-      </c>
-      <c r="B46" s="2" t="s">
-        <v>93</v>
       </c>
       <c r="C46">
         <v>2000</v>
@@ -1276,10 +1275,10 @@
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
       <c r="C47">
         <v>3000</v>
@@ -1287,10 +1286,10 @@
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="C48">
         <v>7000</v>
@@ -1298,25 +1297,17 @@
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>89</v>
+        <v>83</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>98</v>
+        <v>91</v>
       </c>
       <c r="C49">
-        <v>1000</v>
+        <v>5000</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" t="s">
-        <v>90</v>
-      </c>
-      <c r="B50" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="C50">
-        <v>5000</v>
-      </c>
+      <c r="B50" s="2"/>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
@@ -1333,48 +1324,50 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="B5" r:id="rId1" xr:uid="{78C13B07-DFAD-43BB-98C1-9BF4CA8F3CEF}"/>
-    <hyperlink ref="B7" r:id="rId2" xr:uid="{3B8827D8-1414-477E-8F8A-CC77B99F1683}"/>
-    <hyperlink ref="B8" r:id="rId3" xr:uid="{EE0796E1-0FA6-4318-B4DF-253CC96B7021}"/>
-    <hyperlink ref="B9" r:id="rId4" xr:uid="{84E25A02-BA13-4FEB-8F25-4212399FB372}"/>
-    <hyperlink ref="B10" r:id="rId5" xr:uid="{84C3FE1E-1213-4552-864D-BC92C06C6792}"/>
-    <hyperlink ref="B12" r:id="rId6" xr:uid="{2ECD242E-0B39-49C2-835A-46D3014F6C07}"/>
-    <hyperlink ref="B13" r:id="rId7" xr:uid="{7C039661-E7AD-4C93-AA16-F46951B53BA7}"/>
-    <hyperlink ref="B14" r:id="rId8" xr:uid="{D89D60F4-CB32-4F82-8669-BFCC27245755}"/>
-    <hyperlink ref="B15" r:id="rId9" xr:uid="{F3309690-ECB9-44F2-A68D-0EE3547130E7}"/>
-    <hyperlink ref="B16" r:id="rId10" xr:uid="{2CF851A4-780E-453A-A23B-942785772909}"/>
-    <hyperlink ref="B18" r:id="rId11" xr:uid="{8DC46809-68DB-4541-8AE3-FDADA050C3C1}"/>
-    <hyperlink ref="B19" r:id="rId12" xr:uid="{A06B208A-2E1F-4EF6-98B5-0A49F921DAEC}"/>
-    <hyperlink ref="B21" r:id="rId13" xr:uid="{446E194D-E139-4A8B-85FC-6B7408820CBF}"/>
-    <hyperlink ref="B24" r:id="rId14" xr:uid="{947B9CB8-0968-40DB-802B-4B5584624611}"/>
-    <hyperlink ref="B4" r:id="rId15" xr:uid="{9A479564-7F06-4173-8FF3-B71F6C204A4E}"/>
-    <hyperlink ref="B6" r:id="rId16" xr:uid="{BA3033B5-44AF-4CA4-9EFD-BF90151DFB17}"/>
-    <hyperlink ref="B11" r:id="rId17" xr:uid="{A1857489-CBBD-4FF3-9692-A0FAA2EEC9B9}"/>
-    <hyperlink ref="B17" r:id="rId18" xr:uid="{4B5A689B-1E58-47D5-9270-9EFF2018B763}"/>
-    <hyperlink ref="B20" r:id="rId19" xr:uid="{18004D09-A0F8-4BC3-8542-FE2057F515E1}"/>
-    <hyperlink ref="B22" r:id="rId20" xr:uid="{68E8175F-7187-4C9E-8DB4-949A4B73EF1F}"/>
-    <hyperlink ref="B23" r:id="rId21" xr:uid="{AC858697-DA5D-4665-812B-CBF4B910825F}"/>
-    <hyperlink ref="B25" r:id="rId22" xr:uid="{E9150330-CB1F-40C3-A24B-D955CFE6AB87}"/>
-    <hyperlink ref="B26" r:id="rId23" display="https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740" xr:uid="{EA04D4CD-4016-48F6-AD21-33485AD68CE1}"/>
-    <hyperlink ref="B27" r:id="rId24" display="https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg" xr:uid="{A23719D7-B449-42C4-94AB-70DCFCDB0CEE}"/>
-    <hyperlink ref="B29" r:id="rId25" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s" xr:uid="{D6018872-5D4D-4C2C-8F68-2A2B2E013AE6}"/>
-    <hyperlink ref="B30" r:id="rId26" display="https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg" xr:uid="{8DE09D78-C007-482A-8183-FA99B9549C60}"/>
-    <hyperlink ref="B28" r:id="rId27" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s" xr:uid="{EF78017C-7B07-4B27-97E6-AA472E76E484}"/>
-    <hyperlink ref="B31" r:id="rId28" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGj3iVosWCDxd6pWNR52FyPsWi9VSXOvKaKQ&amp;s" xr:uid="{A41497A2-3022-4802-A144-00BE0312A3E2}"/>
-    <hyperlink ref="B35" r:id="rId29" display="https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740" xr:uid="{71D06FA4-42BF-4ACC-95A9-3CB7EB558360}"/>
-    <hyperlink ref="B36" r:id="rId30" display="https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg" xr:uid="{E4B9C092-85FB-4C4D-9485-AA7C31D48409}"/>
-    <hyperlink ref="B38" r:id="rId31" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s" xr:uid="{6C713B61-1811-49EE-91B7-DC9F35C1E879}"/>
-    <hyperlink ref="B32" r:id="rId32" display="https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg" xr:uid="{4E9D8FD3-DE1F-4EF8-9E63-A642B26FA68C}"/>
-    <hyperlink ref="B34" r:id="rId33" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s" xr:uid="{C6E5D2B6-2736-46D1-A68A-76D2AFDAE11C}"/>
-    <hyperlink ref="B42" r:id="rId34" xr:uid="{72C5B577-F2DF-4C02-BED0-A9EA8203FF9E}"/>
-    <hyperlink ref="B43" r:id="rId35" xr:uid="{219C1945-2933-4B41-B5B4-000EFD33F6B6}"/>
-    <hyperlink ref="B44" r:id="rId36" xr:uid="{652617E4-D03B-4640-872C-163EAE730F8A}"/>
-    <hyperlink ref="B45" r:id="rId37" xr:uid="{59FE2BC7-0542-4CFE-BA0E-1F8A841F7AAE}"/>
-    <hyperlink ref="B46" r:id="rId38" xr:uid="{2076AD90-2389-46D5-9CFF-D6343F58298F}"/>
-    <hyperlink ref="B47" r:id="rId39" xr:uid="{BBA63EAF-95F5-4F63-B44F-EA8A6AE55416}"/>
-    <hyperlink ref="B48" r:id="rId40" xr:uid="{EE9F1DE9-0EC4-4873-89D9-D56927C129EF}"/>
-    <hyperlink ref="B49" r:id="rId41" xr:uid="{04D0DC85-39EB-4910-8D27-68D2AE48F702}"/>
-    <hyperlink ref="B50" r:id="rId42" xr:uid="{28FEF591-6CFA-4F33-AD90-C0D2E0DAB13E}"/>
+    <hyperlink ref="B8" r:id="rId1" xr:uid="{EE0796E1-0FA6-4318-B4DF-253CC96B7021}"/>
+    <hyperlink ref="B9" r:id="rId2" xr:uid="{84E25A02-BA13-4FEB-8F25-4212399FB372}"/>
+    <hyperlink ref="B10" r:id="rId3" xr:uid="{84C3FE1E-1213-4552-864D-BC92C06C6792}"/>
+    <hyperlink ref="B12" r:id="rId4" xr:uid="{2ECD242E-0B39-49C2-835A-46D3014F6C07}"/>
+    <hyperlink ref="B13" r:id="rId5" xr:uid="{7C039661-E7AD-4C93-AA16-F46951B53BA7}"/>
+    <hyperlink ref="B14" r:id="rId6" xr:uid="{D89D60F4-CB32-4F82-8669-BFCC27245755}"/>
+    <hyperlink ref="B15" r:id="rId7" xr:uid="{F3309690-ECB9-44F2-A68D-0EE3547130E7}"/>
+    <hyperlink ref="B16" r:id="rId8" xr:uid="{2CF851A4-780E-453A-A23B-942785772909}"/>
+    <hyperlink ref="B18" r:id="rId9" xr:uid="{8DC46809-68DB-4541-8AE3-FDADA050C3C1}"/>
+    <hyperlink ref="B21" r:id="rId10" xr:uid="{446E194D-E139-4A8B-85FC-6B7408820CBF}"/>
+    <hyperlink ref="B24" r:id="rId11" xr:uid="{947B9CB8-0968-40DB-802B-4B5584624611}"/>
+    <hyperlink ref="B6" r:id="rId12" xr:uid="{BA3033B5-44AF-4CA4-9EFD-BF90151DFB17}"/>
+    <hyperlink ref="B11" r:id="rId13" xr:uid="{A1857489-CBBD-4FF3-9692-A0FAA2EEC9B9}"/>
+    <hyperlink ref="B17" r:id="rId14" xr:uid="{4B5A689B-1E58-47D5-9270-9EFF2018B763}"/>
+    <hyperlink ref="B20" r:id="rId15" xr:uid="{18004D09-A0F8-4BC3-8542-FE2057F515E1}"/>
+    <hyperlink ref="B22" r:id="rId16" xr:uid="{68E8175F-7187-4C9E-8DB4-949A4B73EF1F}"/>
+    <hyperlink ref="B23" r:id="rId17" xr:uid="{AC858697-DA5D-4665-812B-CBF4B910825F}"/>
+    <hyperlink ref="B25" r:id="rId18" xr:uid="{E9150330-CB1F-40C3-A24B-D955CFE6AB87}"/>
+    <hyperlink ref="B26" r:id="rId19" display="https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740" xr:uid="{EA04D4CD-4016-48F6-AD21-33485AD68CE1}"/>
+    <hyperlink ref="B27" r:id="rId20" display="https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg" xr:uid="{A23719D7-B449-42C4-94AB-70DCFCDB0CEE}"/>
+    <hyperlink ref="B29" r:id="rId21" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s" xr:uid="{D6018872-5D4D-4C2C-8F68-2A2B2E013AE6}"/>
+    <hyperlink ref="B30" r:id="rId22" display="https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg" xr:uid="{8DE09D78-C007-482A-8183-FA99B9549C60}"/>
+    <hyperlink ref="B28" r:id="rId23" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s" xr:uid="{EF78017C-7B07-4B27-97E6-AA472E76E484}"/>
+    <hyperlink ref="B31" r:id="rId24" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQGj3iVosWCDxd6pWNR52FyPsWi9VSXOvKaKQ&amp;s" xr:uid="{A41497A2-3022-4802-A144-00BE0312A3E2}"/>
+    <hyperlink ref="B35" r:id="rId25" display="https://img.freepik.com/free-vector/sticker-design-with-bar-soap-isolated_1308-63760.jpg?semt=ais_hybrid&amp;w=740" xr:uid="{71D06FA4-42BF-4ACC-95A9-3CB7EB558360}"/>
+    <hyperlink ref="B36" r:id="rId26" display="https://m.officeplus.com/images/prdimg/I/IS/IS3/IS3675_ma.jpg" xr:uid="{E4B9C092-85FB-4C4D-9485-AA7C31D48409}"/>
+    <hyperlink ref="B38" r:id="rId27" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQimz6exkgJ97YuzClj8Nim9SLiruXpsx0jaQ&amp;s" xr:uid="{6C713B61-1811-49EE-91B7-DC9F35C1E879}"/>
+    <hyperlink ref="B32" r:id="rId28" display="https://img1.tmon.kr/cdn4/deals/2023/01/06/10443666094/10443666094_front_727ee7e6bc.jpg" xr:uid="{4E9D8FD3-DE1F-4EF8-9E63-A642B26FA68C}"/>
+    <hyperlink ref="B34" r:id="rId29" display="https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcQVaT26K2euiQKjledsaxNu3U6ahwJ3eTy5Lg&amp;s" xr:uid="{C6E5D2B6-2736-46D1-A68A-76D2AFDAE11C}"/>
+    <hyperlink ref="B42" r:id="rId30" xr:uid="{72C5B577-F2DF-4C02-BED0-A9EA8203FF9E}"/>
+    <hyperlink ref="B43" r:id="rId31" xr:uid="{219C1945-2933-4B41-B5B4-000EFD33F6B6}"/>
+    <hyperlink ref="B44" r:id="rId32" xr:uid="{652617E4-D03B-4640-872C-163EAE730F8A}"/>
+    <hyperlink ref="B45" r:id="rId33" xr:uid="{59FE2BC7-0542-4CFE-BA0E-1F8A841F7AAE}"/>
+    <hyperlink ref="B46" r:id="rId34" xr:uid="{2076AD90-2389-46D5-9CFF-D6343F58298F}"/>
+    <hyperlink ref="B47" r:id="rId35" xr:uid="{BBA63EAF-95F5-4F63-B44F-EA8A6AE55416}"/>
+    <hyperlink ref="B48" r:id="rId36" xr:uid="{EE9F1DE9-0EC4-4873-89D9-D56927C129EF}"/>
+    <hyperlink ref="B49" r:id="rId37" xr:uid="{2BD13D61-1FC4-4DDB-9EEC-6849D1349223}"/>
+    <hyperlink ref="B2" r:id="rId38" xr:uid="{3B03F796-FD8F-46AB-8070-9C9C13BE9BB0}"/>
+    <hyperlink ref="B3" r:id="rId39" xr:uid="{E094778A-AEE8-47A1-8BC7-CD18C5BFBE9F}"/>
+    <hyperlink ref="B4" r:id="rId40" xr:uid="{43C2C1B4-EA7F-47A5-AAE4-9A31DE856257}"/>
+    <hyperlink ref="B5" r:id="rId41" xr:uid="{8DB8D32A-21A1-409C-9A13-C0C9707CB0CF}"/>
+    <hyperlink ref="B7" r:id="rId42" xr:uid="{4AEE88FB-CF16-44F7-AFD6-A729296825A1}"/>
+    <hyperlink ref="B33" r:id="rId43" xr:uid="{807E1317-FED8-4A16-A7AB-F51B913F468B}"/>
+    <hyperlink ref="B19" r:id="rId44" display="https://img.freepik.com/premium-photo/set-colored-earplugs-white-background-reusable-silicone-rubber-ear-plug-cord-against-noise-protect-hear-swim-sleep-rest-creative-aesthetic-flat-lay-view-pastel-tones_99432-11469.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740" xr:uid="{DAA5E874-D1D3-4542-95F4-C6EB87668217}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/상품목록_이미지입력용.xlsx
+++ b/상품목록_이미지입력용.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopping-mission-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86F8C537-2E91-412D-B424-E6EAEE0ED904}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642325B-2529-4D68-B7A6-A38A7F0E6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="32745" yWindow="1905" windowWidth="21840" windowHeight="15090" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="115">
   <si>
     <t>상품명</t>
   </si>
@@ -368,6 +368,70 @@
   </si>
   <si>
     <t>https://img.freepik.com/premium-photo/set-colored-earplugs-white-background-reusable-silicone-rubber-ear-plug-cord-against-noise-protect-hear-swim-sleep-rest-creative-aesthetic-flat-lay-view-pastel-tones_99432-11469.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>컵라면</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-psd/cup-instant-ramen-with-green-onions_787500-55485.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/man-applies-insect-repellent-his-sons-hand-park-closeup-prevention-bites_472916-50499.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>모기 기피제</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>과자</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/free-photo/crackers-biscuits_1339-1032.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://img.freepik.com/premium-photo/red-aluminum-cans-with-water-droplets-white-background_167862-6023.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>탄산음료(콜라)</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>케이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>조각 케이크</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>생일초</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>파티풍선 세트</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTF19OGL1O_Ky9P0hTPDxGxyVpvssPD1642jA&amp;s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://lucycato.co.kr/pds/space/125_1?1651652964</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcSG6PyRclVULM2jfcOCjWbC-PHTpgSwJOik0A&amp;s</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://m.hiballoon.co.kr/web/product/big/202204/9cf4b19c088b4bf1c369133b24986082.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -755,10 +819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C54"/>
+  <dimension ref="A1:C57"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -830,7 +894,7 @@
         <v>64</v>
       </c>
       <c r="C6">
-        <v>3500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -841,7 +905,7 @@
         <v>96</v>
       </c>
       <c r="C7">
-        <v>6000</v>
+        <v>8000</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
@@ -1307,19 +1371,92 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
+      <c r="A50" t="s">
+        <v>99</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="C50">
+        <v>1000</v>
+      </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
+      <c r="A51" t="s">
+        <v>102</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="C51">
+        <v>3000</v>
+      </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
+      <c r="A52" t="s">
+        <v>103</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="C52">
+        <v>1000</v>
+      </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
+      <c r="A53" t="s">
+        <v>106</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="C53">
+        <v>1500</v>
+      </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
+      <c r="A54" t="s">
+        <v>107</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C54">
+        <v>20000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" t="s">
+        <v>108</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C55">
+        <v>5000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" t="s">
+        <v>109</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>113</v>
+      </c>
+      <c r="C56">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" t="s">
+        <v>110</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="C57">
+        <v>4000</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -1368,6 +1505,14 @@
     <hyperlink ref="B7" r:id="rId42" xr:uid="{4AEE88FB-CF16-44F7-AFD6-A729296825A1}"/>
     <hyperlink ref="B33" r:id="rId43" xr:uid="{807E1317-FED8-4A16-A7AB-F51B913F468B}"/>
     <hyperlink ref="B19" r:id="rId44" display="https://img.freepik.com/premium-photo/set-colored-earplugs-white-background-reusable-silicone-rubber-ear-plug-cord-against-noise-protect-hear-swim-sleep-rest-creative-aesthetic-flat-lay-view-pastel-tones_99432-11469.jpg?ga=GA1.1.426326816.1750134496&amp;semt=ais_hybrid&amp;w=740" xr:uid="{DAA5E874-D1D3-4542-95F4-C6EB87668217}"/>
+    <hyperlink ref="B50" r:id="rId45" xr:uid="{7E0F13F8-A500-46CF-9A05-02FD9F595286}"/>
+    <hyperlink ref="B51" r:id="rId46" xr:uid="{159AD799-D858-475F-9A9D-166DCB869BC9}"/>
+    <hyperlink ref="B52" r:id="rId47" xr:uid="{EBF90B36-E227-4DA2-9559-6A0C274066FD}"/>
+    <hyperlink ref="B53" r:id="rId48" xr:uid="{98398C63-EC77-4EFD-8E01-FEB30351AF78}"/>
+    <hyperlink ref="B54" r:id="rId49" xr:uid="{EA58097A-66EE-4364-9A6D-62F67DD9C88E}"/>
+    <hyperlink ref="B55" r:id="rId50" xr:uid="{2262A27C-4D5A-41D3-8F31-1983459D2864}"/>
+    <hyperlink ref="B56" r:id="rId51" xr:uid="{6A935E7C-74BD-4AEF-A7C2-E5D4FE6052DF}"/>
+    <hyperlink ref="B57" r:id="rId52" xr:uid="{52FEECA9-BCB5-4A67-BEFD-D4F87EAA6687}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/상품목록_이미지입력용.xlsx
+++ b/상품목록_이미지입력용.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\shopping-mission-app\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4642325B-2529-4D68-B7A6-A38A7F0E6496}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2668EAA-54A4-44A1-83C4-6810C2EF9424}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -431,7 +431,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>https://m.hiballoon.co.kr/web/product/big/202204/9cf4b19c088b4bf1c369133b24986082.jpg</t>
+    <t>https://sitem.ssgcdn.com/92/06/56/item/1000553560692_i1_332.jpg</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -821,8 +821,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="B58" sqref="B58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1512,7 +1512,7 @@
     <hyperlink ref="B54" r:id="rId49" xr:uid="{EA58097A-66EE-4364-9A6D-62F67DD9C88E}"/>
     <hyperlink ref="B55" r:id="rId50" xr:uid="{2262A27C-4D5A-41D3-8F31-1983459D2864}"/>
     <hyperlink ref="B56" r:id="rId51" xr:uid="{6A935E7C-74BD-4AEF-A7C2-E5D4FE6052DF}"/>
-    <hyperlink ref="B57" r:id="rId52" xr:uid="{52FEECA9-BCB5-4A67-BEFD-D4F87EAA6687}"/>
+    <hyperlink ref="B57" r:id="rId52" xr:uid="{C36216AC-633D-44F8-A65F-CBDF076C9A20}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
